--- a/ITMO/homeworks/sims/attemt2/short data mg.xlsx
+++ b/ITMO/homeworks/sims/attemt2/short data mg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lysikova.dv\Documents\GitHub\Python_tasks_algorithm\ITMO\homeworks\sims\attemt2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8EF4C29-CA3B-4649-ABE5-EE778A8D2462}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEC0A54-EA71-4AF1-955D-9694261A3687}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time[mn]</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>I Mg</t>
+  </si>
+  <si>
+    <t>I Ga</t>
+  </si>
+  <si>
+    <t>Time Ga</t>
   </si>
 </sst>
 </file>
@@ -370,19 +376,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E320"/>
+  <dimension ref="A1:H320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="E295" sqref="E295:E297"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -398,8 +406,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2.53333E-2</v>
       </c>
@@ -408,16 +422,22 @@
       </c>
       <c r="C2">
         <f>A2*$D$2</f>
-        <v>0.91377213099999999</v>
+        <v>0.70375907400000004</v>
       </c>
       <c r="D2">
-        <v>36.07</v>
+        <v>27.78</v>
       </c>
       <c r="E2" s="1">
         <v>8438.39</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="1">
+        <v>83943.6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0.14933299999999999</v>
       </c>
@@ -426,13 +446,19 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" si="0">A3*$D$2</f>
-        <v>5.3864413099999995</v>
+        <v>4.1484707399999996</v>
       </c>
       <c r="E3" s="1">
         <v>885.27200000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="1">
+        <v>160305</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.27333299999999999</v>
       </c>
@@ -441,13 +467,19 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>9.859121309999999</v>
+        <v>7.5931907399999998</v>
       </c>
       <c r="E4" s="1">
         <v>439.15100000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="1">
+        <v>207982</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>0.39733299999999999</v>
       </c>
@@ -456,13 +488,19 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>14.331801309999999</v>
+        <v>11.037910740000001</v>
       </c>
       <c r="E5" s="1">
         <v>360.83499999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="1">
+        <v>286654</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>0.52133300000000005</v>
       </c>
@@ -471,13 +509,19 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>18.804481310000003</v>
+        <v>14.482630740000001</v>
       </c>
       <c r="E6" s="1">
         <v>326.13900000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="1">
+        <v>389054</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.61199999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>0.64533300000000005</v>
       </c>
@@ -486,13 +530,19 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>23.27716131</v>
+        <v>17.927350740000001</v>
       </c>
       <c r="E7" s="1">
         <v>377.68799999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="1">
+        <v>454070</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>0.76933300000000004</v>
       </c>
@@ -501,13 +551,19 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>27.749841310000001</v>
+        <v>21.372070740000002</v>
       </c>
       <c r="E8" s="1">
         <v>380.66199999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G8" s="1">
+        <v>481280</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>0.89333300000000004</v>
       </c>
@@ -516,13 +572,19 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>32.222521310000005</v>
+        <v>24.816790740000002</v>
       </c>
       <c r="E9" s="1">
         <v>384.62700000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G9" s="1">
+        <v>487952</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1.0173300000000001</v>
       </c>
@@ -531,13 +593,19 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>36.695093100000001</v>
+        <v>28.261427400000002</v>
       </c>
       <c r="E10" s="1">
         <v>410.40199999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G10" s="1">
+        <v>488071</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.1080000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1.14133</v>
       </c>
@@ -546,13 +614,19 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>41.167773099999998</v>
+        <v>31.706147399999999</v>
       </c>
       <c r="E11" s="1">
         <v>458.97800000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G11" s="1">
+        <v>484693</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1.2653300000000001</v>
       </c>
@@ -561,13 +635,19 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>45.640453100000002</v>
+        <v>35.150867400000003</v>
       </c>
       <c r="E12" s="1">
         <v>463.935</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G12" s="1">
+        <v>482850</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.3560000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1.38933</v>
       </c>
@@ -576,13 +656,19 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>50.113133099999999</v>
+        <v>38.595587399999999</v>
       </c>
       <c r="E13" s="1">
         <v>456.995</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G13" s="1">
+        <v>482207</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1.5133300000000001</v>
       </c>
@@ -591,13 +677,19 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>54.585813100000003</v>
+        <v>42.040307400000003</v>
       </c>
       <c r="E14" s="1">
         <v>520.44200000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G14" s="1">
+        <v>480996</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.6040000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1.63733</v>
       </c>
@@ -606,13 +698,19 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>59.0584931</v>
+        <v>45.4850274</v>
       </c>
       <c r="E15" s="1">
         <v>528.37199999999996</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G15" s="1">
+        <v>478886</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1.7613300000000001</v>
       </c>
@@ -621,13 +719,19 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>63.531173100000004</v>
+        <v>48.929747400000004</v>
       </c>
       <c r="E16" s="1">
         <v>569.01800000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G16" s="1">
+        <v>479217</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.8520000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1.88533</v>
       </c>
@@ -636,13 +740,19 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>68.003853100000001</v>
+        <v>52.3744674</v>
       </c>
       <c r="E17" s="1">
         <v>568.02700000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G17" s="1">
+        <v>479094</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.976</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2.0093299999999998</v>
       </c>
@@ -651,13 +761,19 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>72.476533099999997</v>
+        <v>55.819187399999997</v>
       </c>
       <c r="E18" s="1">
         <v>645.35400000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G18" s="1">
+        <v>479907</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2.1333299999999999</v>
       </c>
@@ -666,13 +782,19 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>76.949213099999994</v>
+        <v>59.263907400000001</v>
       </c>
       <c r="E19" s="1">
         <v>641.38800000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G19" s="1">
+        <v>480092</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2.2240000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2.2573300000000001</v>
       </c>
@@ -681,13 +803,19 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>81.421893100000005</v>
+        <v>62.708627400000005</v>
       </c>
       <c r="E20" s="1">
         <v>655.26800000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>483439</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2.3479999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2.3813300000000002</v>
       </c>
@@ -696,13 +824,19 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>85.894573100000002</v>
+        <v>66.153347400000001</v>
       </c>
       <c r="E21" s="1">
         <v>746.47500000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G21" s="1">
+        <v>483228</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2.472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2.5053299999999998</v>
       </c>
@@ -711,13 +845,19 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>90.367253099999999</v>
+        <v>69.598067400000005</v>
       </c>
       <c r="E22" s="1">
         <v>721.69</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <v>482248</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2.5960000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2.6293299999999999</v>
       </c>
@@ -726,13 +866,19 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>94.839933099999996</v>
+        <v>73.042787399999995</v>
       </c>
       <c r="E23" s="1">
         <v>754.40599999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G23" s="1">
+        <v>480083</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2.7533300000000001</v>
       </c>
@@ -741,13 +887,19 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>99.312613100000007</v>
+        <v>76.487507399999998</v>
       </c>
       <c r="E24" s="1">
         <v>779.19100000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G24" s="1">
+        <v>479592</v>
+      </c>
+      <c r="H24" s="1">
+        <v>2.8439999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2.8773300000000002</v>
       </c>
@@ -756,13 +908,19 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>103.7852931</v>
+        <v>79.932227400000002</v>
       </c>
       <c r="E25" s="1">
         <v>759.36300000000006</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G25" s="1">
+        <v>479509</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2.968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>3.0013299999999998</v>
       </c>
@@ -771,13 +929,19 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>108.2579731</v>
+        <v>83.376947399999992</v>
       </c>
       <c r="E26" s="1">
         <v>781.17399999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G26" s="1">
+        <v>479502</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3.0920000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>3.1253299999999999</v>
       </c>
@@ -786,13 +950,19 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>112.7306531</v>
+        <v>86.821667399999995</v>
       </c>
       <c r="E27" s="1">
         <v>779.19100000000003</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G27" s="1">
+        <v>480452</v>
+      </c>
+      <c r="H27" s="1">
+        <v>3.2160000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>3.2493300000000001</v>
       </c>
@@ -801,13 +971,19 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>117.20333310000001</v>
+        <v>90.266387399999999</v>
       </c>
       <c r="E28" s="1">
         <v>868.41700000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G28" s="1">
+        <v>481041</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>3.3733300000000002</v>
       </c>
@@ -816,13 +992,19 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>121.67601310000001</v>
+        <v>93.711107400000003</v>
       </c>
       <c r="E29" s="1">
         <v>929.88499999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G29" s="1">
+        <v>481969</v>
+      </c>
+      <c r="H29" s="1">
+        <v>3.464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>3.4973299999999998</v>
       </c>
@@ -831,13 +1013,19 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>126.14869309999999</v>
+        <v>97.155827399999993</v>
       </c>
       <c r="E30" s="1">
         <v>947.73099999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G30" s="1">
+        <v>483697</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3.5880000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>3.74533</v>
       </c>
@@ -846,13 +1034,19 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>135.0940531</v>
+        <v>104.0452674</v>
       </c>
       <c r="E31" s="1">
         <v>1012.17</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G31" s="1">
+        <v>483262</v>
+      </c>
+      <c r="H31" s="1">
+        <v>3.7120000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>3.8693300000000002</v>
       </c>
@@ -861,13 +1055,19 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>139.56673309999999</v>
+        <v>107.4899874</v>
       </c>
       <c r="E32" s="1">
         <v>984.41300000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32" s="1">
+        <v>480639</v>
+      </c>
+      <c r="H32" s="1">
+        <v>3.8359999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>3.9933299999999998</v>
       </c>
@@ -876,13 +1076,19 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>144.03941309999999</v>
+        <v>110.93470739999999</v>
       </c>
       <c r="E33" s="1">
         <v>995.32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33" s="1">
+        <v>481166</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>4.1173299999999999</v>
       </c>
@@ -891,13 +1097,19 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>148.51209309999999</v>
+        <v>114.3794274</v>
       </c>
       <c r="E34" s="1">
         <v>1093.47</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34" s="1">
+        <v>479890</v>
+      </c>
+      <c r="H34" s="1">
+        <v>4.0839999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>4.2413299999999996</v>
       </c>
@@ -906,13 +1118,19 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>152.98477309999998</v>
+        <v>117.82414739999999</v>
       </c>
       <c r="E35" s="1">
         <v>1089.51</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G35" s="1">
+        <v>481147</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4.2080000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>4.3653300000000002</v>
       </c>
@@ -921,13 +1139,19 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>157.45745310000001</v>
+        <v>121.2688674</v>
       </c>
       <c r="E36" s="1">
         <v>1063.73</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G36" s="1">
+        <v>483064</v>
+      </c>
+      <c r="H36" s="1">
+        <v>4.3319999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>4.4893299999999998</v>
       </c>
@@ -936,13 +1160,19 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>161.93013310000001</v>
+        <v>124.71358739999999</v>
       </c>
       <c r="E37" s="1">
         <v>1161.8800000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G37" s="1">
+        <v>484925</v>
+      </c>
+      <c r="H37" s="1">
+        <v>4.4560000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>4.73733</v>
       </c>
@@ -951,13 +1181,19 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>170.8754931</v>
+        <v>131.6030274</v>
       </c>
       <c r="E38" s="1">
         <v>1139.08</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G38" s="1">
+        <v>484516</v>
+      </c>
+      <c r="H38" s="1">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>4.8613299999999997</v>
       </c>
@@ -966,13 +1202,19 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>175.3481731</v>
+        <v>135.04774739999999</v>
       </c>
       <c r="E39" s="1">
         <v>1237.23</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G39" s="1">
+        <v>483040</v>
+      </c>
+      <c r="H39" s="1">
+        <v>4.7039999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>4.9853300000000003</v>
       </c>
@@ -981,13 +1223,19 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>179.82085310000002</v>
+        <v>138.49246740000001</v>
       </c>
       <c r="E40" s="1">
         <v>1194.5999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G40" s="1">
+        <v>480579</v>
+      </c>
+      <c r="H40" s="1">
+        <v>4.8280000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>5.1093299999999999</v>
       </c>
@@ -996,13 +1244,19 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>184.29353309999999</v>
+        <v>141.9371874</v>
       </c>
       <c r="E41" s="1">
         <v>1228.31</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G41" s="1">
+        <v>480435</v>
+      </c>
+      <c r="H41" s="1">
+        <v>4.952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>5.2333299999999996</v>
       </c>
@@ -1011,13 +1265,19 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>188.76621309999999</v>
+        <v>145.38190739999999</v>
       </c>
       <c r="E42" s="1">
         <v>1283.83</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G42" s="1">
+        <v>479945</v>
+      </c>
+      <c r="H42" s="1">
+        <v>5.0759999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>5.3573300000000001</v>
       </c>
@@ -1026,13 +1286,19 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>193.23889310000001</v>
+        <v>148.82662740000001</v>
       </c>
       <c r="E43" s="1">
         <v>1305.6400000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G43" s="1">
+        <v>479592</v>
+      </c>
+      <c r="H43" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>5.4813299999999998</v>
       </c>
@@ -1041,13 +1307,19 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>197.71157309999998</v>
+        <v>152.2713474</v>
       </c>
       <c r="E44" s="1">
         <v>1264.99</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G44" s="1">
+        <v>480718</v>
+      </c>
+      <c r="H44" s="1">
+        <v>5.3239999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>5.6053300000000004</v>
       </c>
@@ -1056,13 +1328,19 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>202.18425310000001</v>
+        <v>155.71606740000001</v>
       </c>
       <c r="E45" s="1">
         <v>1335.39</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G45" s="1">
+        <v>479634</v>
+      </c>
+      <c r="H45" s="1">
+        <v>5.4480000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>5.72933</v>
       </c>
@@ -1071,13 +1349,19 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>206.6569331</v>
+        <v>159.1607874</v>
       </c>
       <c r="E46" s="1">
         <v>1364.14</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G46" s="1">
+        <v>480388</v>
+      </c>
+      <c r="H46" s="1">
+        <v>5.5720000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>5.8533299999999997</v>
       </c>
@@ -1086,13 +1370,19 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>211.1296131</v>
+        <v>162.60550739999999</v>
       </c>
       <c r="E47" s="1">
         <v>1453.38</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G47" s="1">
+        <v>481925</v>
+      </c>
+      <c r="H47" s="1">
+        <v>5.6959999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>5.9773300000000003</v>
       </c>
@@ -1101,13 +1391,19 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>215.6022931</v>
+        <v>166.05022740000001</v>
       </c>
       <c r="E48" s="1">
         <v>1374.06</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G48" s="1">
+        <v>482576</v>
+      </c>
+      <c r="H48" s="1">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>6.1013299999999999</v>
       </c>
@@ -1116,13 +1412,19 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>220.07497309999999</v>
+        <v>169.4949474</v>
       </c>
       <c r="E49" s="1">
         <v>1488.08</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G49" s="1">
+        <v>482708</v>
+      </c>
+      <c r="H49" s="1">
+        <v>5.944</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>6.2253299999999996</v>
       </c>
@@ -1131,13 +1433,19 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>224.54765309999999</v>
+        <v>172.93966739999999</v>
       </c>
       <c r="E50" s="1">
         <v>1507.91</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G50" s="1">
+        <v>484966</v>
+      </c>
+      <c r="H50" s="1">
+        <v>6.0679999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>6.3493300000000001</v>
       </c>
@@ -1146,13 +1454,19 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>229.02033310000002</v>
+        <v>176.38438740000001</v>
       </c>
       <c r="E51" s="1">
         <v>1531.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G51" s="1">
+        <v>485076</v>
+      </c>
+      <c r="H51" s="1">
+        <v>6.1920000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>6.4733299999999998</v>
       </c>
@@ -1161,13 +1475,19 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>233.49301309999998</v>
+        <v>179.8291074</v>
       </c>
       <c r="E52" s="1">
         <v>1542.61</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G52" s="1">
+        <v>483469</v>
+      </c>
+      <c r="H52" s="1">
+        <v>6.3159999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>6.5973300000000004</v>
       </c>
@@ -1176,13 +1496,19 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>237.96569310000001</v>
+        <v>183.27382740000002</v>
       </c>
       <c r="E53" s="1">
         <v>1513.86</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G53" s="1">
+        <v>483340</v>
+      </c>
+      <c r="H53" s="1">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>6.72133</v>
       </c>
@@ -1191,13 +1517,19 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>242.43837310000001</v>
+        <v>186.71854740000001</v>
       </c>
       <c r="E54" s="1">
         <v>1598.14</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G54" s="1">
+        <v>483181</v>
+      </c>
+      <c r="H54" s="1">
+        <v>6.5640000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>6.8453299999999997</v>
       </c>
@@ -1206,13 +1538,19 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>246.9110531</v>
+        <v>190.1632674</v>
       </c>
       <c r="E55" s="1">
         <v>1502.95</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G55" s="1">
+        <v>483529</v>
+      </c>
+      <c r="H55" s="1">
+        <v>6.6879999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>6.9693300000000002</v>
       </c>
@@ -1221,13 +1559,19 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>251.3837331</v>
+        <v>193.60798740000001</v>
       </c>
       <c r="E56" s="1">
         <v>1681.42</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G56" s="1">
+        <v>481730</v>
+      </c>
+      <c r="H56" s="1">
+        <v>6.8120000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>7.0933299999999999</v>
       </c>
@@ -1236,13 +1580,19 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>255.8564131</v>
+        <v>197.0527074</v>
       </c>
       <c r="E57" s="1">
         <v>1692.33</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G57" s="1">
+        <v>481100</v>
+      </c>
+      <c r="H57" s="1">
+        <v>6.9359999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>7.2173299999999996</v>
       </c>
@@ -1251,13 +1601,19 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>260.32909309999997</v>
+        <v>200.49742739999999</v>
       </c>
       <c r="E58" s="1">
         <v>1705.22</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G58" s="1">
+        <v>480870</v>
+      </c>
+      <c r="H58" s="1">
+        <v>7.06</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>7.3413300000000001</v>
       </c>
@@ -1266,13 +1622,19 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>264.80177309999999</v>
+        <v>203.94214740000001</v>
       </c>
       <c r="E59" s="1">
         <v>1620.94</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G59" s="1">
+        <v>481462</v>
+      </c>
+      <c r="H59" s="1">
+        <v>7.1840000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>7.4653299999999998</v>
       </c>
@@ -1281,13 +1643,19 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>269.27445310000002</v>
+        <v>207.3868674</v>
       </c>
       <c r="E60" s="1">
         <v>1661.59</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G60" s="1">
+        <v>482266</v>
+      </c>
+      <c r="H60" s="1">
+        <v>7.3079999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>7.5893300000000004</v>
       </c>
@@ -1296,13 +1664,19 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>273.74713310000004</v>
+        <v>210.83158740000002</v>
       </c>
       <c r="E61" s="1">
         <v>1623.92</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G61" s="1">
+        <v>480380</v>
+      </c>
+      <c r="H61" s="1">
+        <v>7.4320000000000004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>7.71333</v>
       </c>
@@ -1311,13 +1685,19 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>278.21981310000001</v>
+        <v>214.27630740000001</v>
       </c>
       <c r="E62" s="1">
         <v>1732.99</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G62" s="1">
+        <v>483291</v>
+      </c>
+      <c r="H62" s="1">
+        <v>7.556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>7.8373299999999997</v>
       </c>
@@ -1326,13 +1706,19 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>282.69249309999998</v>
+        <v>217.7210274</v>
       </c>
       <c r="E63" s="1">
         <v>1673.49</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G63" s="1">
+        <v>482589</v>
+      </c>
+      <c r="H63" s="1">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>7.9613300000000002</v>
       </c>
@@ -1341,13 +1727,19 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>287.1651731</v>
+        <v>221.16574740000001</v>
       </c>
       <c r="E64" s="1">
         <v>1691.34</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G64" s="1">
+        <v>484161</v>
+      </c>
+      <c r="H64" s="1">
+        <v>7.8040000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>8.0853300000000008</v>
       </c>
@@ -1356,13 +1748,19 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>291.63785310000003</v>
+        <v>224.61046740000003</v>
       </c>
       <c r="E65" s="1">
         <v>1749.84</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G65" s="1">
+        <v>485981</v>
+      </c>
+      <c r="H65" s="1">
+        <v>7.9279999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>8.2093299999999996</v>
       </c>
@@ -1371,13 +1769,19 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>296.1105331</v>
+        <v>228.05518739999999</v>
       </c>
       <c r="E66" s="1">
         <v>1667.54</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G66" s="1">
+        <v>485949</v>
+      </c>
+      <c r="H66" s="1">
+        <v>8.0519999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>8.3333300000000001</v>
       </c>
@@ -1386,13 +1790,19 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" si="1">A67*$D$2</f>
-        <v>300.58321310000002</v>
+        <v>231.49990740000001</v>
       </c>
       <c r="E67" s="1">
         <v>1686.38</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G67" s="1">
+        <v>484490</v>
+      </c>
+      <c r="H67" s="1">
+        <v>8.1760000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>8.4573300000000007</v>
       </c>
@@ -1401,13 +1811,19 @@
       </c>
       <c r="C68">
         <f t="shared" si="1"/>
-        <v>305.05589310000005</v>
+        <v>234.94462740000003</v>
       </c>
       <c r="E68" s="1">
         <v>1700.27</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G68" s="1">
+        <v>482461</v>
+      </c>
+      <c r="H68" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>8.5813299999999995</v>
       </c>
@@ -1416,13 +1832,19 @@
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>309.52857309999996</v>
+        <v>238.38934739999999</v>
       </c>
       <c r="E69" s="1">
         <v>1681.43</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G69" s="1">
+        <v>482113</v>
+      </c>
+      <c r="H69" s="1">
+        <v>8.4239999999999995</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>8.70533</v>
       </c>
@@ -1431,13 +1853,19 @@
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>314.00125309999999</v>
+        <v>241.83406740000001</v>
       </c>
       <c r="E70" s="1">
         <v>1725.05</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G70" s="1">
+        <v>480693</v>
+      </c>
+      <c r="H70" s="1">
+        <v>8.548</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>8.9533299999999993</v>
       </c>
@@ -1446,13 +1874,19 @@
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>322.94661309999998</v>
+        <v>248.72350739999999</v>
       </c>
       <c r="E71" s="1">
         <v>1692.33</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G71" s="1">
+        <v>482084</v>
+      </c>
+      <c r="H71" s="1">
+        <v>8.6720000000000006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>9.0773299999999999</v>
       </c>
@@ -1461,13 +1895,19 @@
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>327.4192931</v>
+        <v>252.16822740000001</v>
       </c>
       <c r="E72" s="1">
         <v>1678.45</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G72" s="1">
+        <v>482179</v>
+      </c>
+      <c r="H72" s="1">
+        <v>8.7959999999999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>9.2013300000000005</v>
       </c>
@@ -1476,13 +1916,19 @@
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>331.89197310000003</v>
+        <v>255.61294740000002</v>
       </c>
       <c r="E73" s="1">
         <v>1669.53</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G73" s="1">
+        <v>483634</v>
+      </c>
+      <c r="H73" s="1">
+        <v>8.92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>9.3253299999999992</v>
       </c>
@@ -1491,13 +1937,19 @@
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>336.3646531</v>
+        <v>259.05766740000001</v>
       </c>
       <c r="E74" s="1">
         <v>1695.31</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G74" s="1">
+        <v>485203</v>
+      </c>
+      <c r="H74" s="1">
+        <v>9.0440000000000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>9.4493299999999998</v>
       </c>
@@ -1506,13 +1958,19 @@
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>340.83733309999997</v>
+        <v>262.50238740000003</v>
       </c>
       <c r="E75" s="1">
         <v>1737.94</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G75" s="1">
+        <v>484680</v>
+      </c>
+      <c r="H75" s="1">
+        <v>9.1679999999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>9.5733300000000003</v>
       </c>
@@ -1521,13 +1979,19 @@
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>345.31001309999999</v>
+        <v>265.94710739999999</v>
       </c>
       <c r="E76" s="1">
         <v>1703.24</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G76" s="1">
+        <v>483260</v>
+      </c>
+      <c r="H76" s="1">
+        <v>9.2919999999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>9.6973299999999991</v>
       </c>
@@ -1536,13 +2000,19 @@
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>349.78269309999996</v>
+        <v>269.39182740000001</v>
       </c>
       <c r="E77" s="1">
         <v>1633.83</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G77" s="1">
+        <v>481924</v>
+      </c>
+      <c r="H77" s="1">
+        <v>9.4160000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>9.8213299999999997</v>
       </c>
@@ -1551,13 +2021,19 @@
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>354.25537309999999</v>
+        <v>272.83654740000003</v>
       </c>
       <c r="E78" s="1">
         <v>1575.33</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G78" s="1">
+        <v>480998</v>
+      </c>
+      <c r="H78" s="1">
+        <v>9.5399999999999991</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>9.9453300000000002</v>
       </c>
@@ -1566,13 +2042,19 @@
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>358.72805310000001</v>
+        <v>276.28126739999999</v>
       </c>
       <c r="E79" s="1">
         <v>1672.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G79" s="1">
+        <v>481174</v>
+      </c>
+      <c r="H79" s="1">
+        <v>9.6639999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>10.0693</v>
       </c>
@@ -1581,13 +2063,19 @@
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>363.19965100000002</v>
+        <v>279.72515400000003</v>
       </c>
       <c r="E80" s="1">
         <v>1565.42</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G80" s="1">
+        <v>480904</v>
+      </c>
+      <c r="H80" s="1">
+        <v>9.7880000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>10.193300000000001</v>
       </c>
@@ -1596,13 +2084,19 @@
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>367.67233100000004</v>
+        <v>283.16987400000005</v>
       </c>
       <c r="E81" s="1">
         <v>1517.82</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G81" s="1">
+        <v>481755</v>
+      </c>
+      <c r="H81" s="1">
+        <v>9.9120000000000008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>10.317299999999999</v>
       </c>
@@ -1611,13 +2105,19 @@
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>372.14501100000001</v>
+        <v>286.61459400000001</v>
       </c>
       <c r="E82" s="1">
         <v>1593.18</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G82" s="1">
+        <v>483588</v>
+      </c>
+      <c r="H82" s="1">
+        <v>10.036</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>10.4413</v>
       </c>
@@ -1626,13 +2126,19 @@
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>376.61769099999998</v>
+        <v>290.05931400000003</v>
       </c>
       <c r="E83" s="1">
         <v>1582.27</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G83" s="1">
+        <v>483961</v>
+      </c>
+      <c r="H83" s="1">
+        <v>10.16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>10.565300000000001</v>
       </c>
@@ -1641,13 +2147,19 @@
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>381.090371</v>
+        <v>293.50403400000005</v>
       </c>
       <c r="E84" s="1">
         <v>1568.39</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G84" s="1">
+        <v>485309</v>
+      </c>
+      <c r="H84" s="1">
+        <v>10.284000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>10.689299999999999</v>
       </c>
@@ -1656,13 +2168,19 @@
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>385.56305099999997</v>
+        <v>296.94875400000001</v>
       </c>
       <c r="E85" s="1">
         <v>1403.8</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G85" s="1">
+        <v>483679</v>
+      </c>
+      <c r="H85" s="1">
+        <v>10.407999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>10.8133</v>
       </c>
@@ -1671,13 +2189,19 @@
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>390.035731</v>
+        <v>300.39347400000003</v>
       </c>
       <c r="E86" s="1">
         <v>1381.99</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G86" s="1">
+        <v>481616</v>
+      </c>
+      <c r="H86" s="1">
+        <v>10.532</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>10.9373</v>
       </c>
@@ -1686,13 +2210,19 @@
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>394.50841100000002</v>
+        <v>303.83819400000004</v>
       </c>
       <c r="E87" s="1">
         <v>1418.67</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G87" s="1">
+        <v>481181</v>
+      </c>
+      <c r="H87" s="1">
+        <v>10.656000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>11.061299999999999</v>
       </c>
@@ -1701,13 +2231,19 @@
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>398.98109099999999</v>
+        <v>307.28291400000001</v>
       </c>
       <c r="E88" s="1">
         <v>1397.85</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G88" s="1">
+        <v>481496</v>
+      </c>
+      <c r="H88" s="1">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>11.1853</v>
       </c>
@@ -1716,13 +2252,19 @@
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
-        <v>403.45377100000002</v>
+        <v>310.72763400000002</v>
       </c>
       <c r="E89" s="1">
         <v>1307.6300000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G89" s="1">
+        <v>482472</v>
+      </c>
+      <c r="H89" s="1">
+        <v>10.904</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>11.3093</v>
       </c>
@@ -1731,13 +2273,19 @@
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>407.92645100000004</v>
+        <v>314.17235400000004</v>
       </c>
       <c r="E90" s="1">
         <v>1322.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G90" s="1">
+        <v>483020</v>
+      </c>
+      <c r="H90" s="1">
+        <v>11.028</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>11.433299999999999</v>
       </c>
@@ -1746,13 +2294,19 @@
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>412.39913099999995</v>
+        <v>317.617074</v>
       </c>
       <c r="E91" s="1">
         <v>1292.76</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G91" s="1">
+        <v>484491</v>
+      </c>
+      <c r="H91" s="1">
+        <v>11.151999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>11.5573</v>
       </c>
@@ -1761,13 +2315,19 @@
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>416.87181099999998</v>
+        <v>321.06179400000002</v>
       </c>
       <c r="E92" s="1">
         <v>1245.1600000000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G92" s="1">
+        <v>484245</v>
+      </c>
+      <c r="H92" s="1">
+        <v>11.276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>11.6813</v>
       </c>
@@ -1776,13 +2336,19 @@
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>421.344491</v>
+        <v>324.50651400000004</v>
       </c>
       <c r="E93" s="1">
         <v>1268.96</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G93" s="1">
+        <v>483215</v>
+      </c>
+      <c r="H93" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>11.805300000000001</v>
       </c>
@@ -1791,13 +2357,19 @@
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
-        <v>425.81717100000003</v>
+        <v>327.95123400000006</v>
       </c>
       <c r="E94" s="1">
         <v>1224.3399999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G94" s="1">
+        <v>481407</v>
+      </c>
+      <c r="H94" s="1">
+        <v>11.523999999999999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>11.9293</v>
       </c>
@@ -1806,13 +2378,19 @@
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
-        <v>430.289851</v>
+        <v>331.39595400000002</v>
       </c>
       <c r="E95" s="1">
         <v>1134.1199999999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G95" s="1">
+        <v>480715</v>
+      </c>
+      <c r="H95" s="1">
+        <v>11.648</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>12.0533</v>
       </c>
@@ -1821,13 +2399,19 @@
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
-        <v>434.76253100000002</v>
+        <v>334.84067400000004</v>
       </c>
       <c r="E96" s="1">
         <v>1104.3800000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G96" s="1">
+        <v>480175</v>
+      </c>
+      <c r="H96" s="1">
+        <v>11.772</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>12.177300000000001</v>
       </c>
@@ -1836,13 +2420,19 @@
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
-        <v>439.23521100000005</v>
+        <v>338.28539400000005</v>
       </c>
       <c r="E97" s="1">
         <v>1106.3599999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G97" s="1">
+        <v>480556</v>
+      </c>
+      <c r="H97" s="1">
+        <v>11.896000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>12.301299999999999</v>
       </c>
@@ -1851,13 +2441,19 @@
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>443.70789099999996</v>
+        <v>341.73011400000001</v>
       </c>
       <c r="E98" s="1">
         <v>1054.81</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G98" s="1">
+        <v>481366</v>
+      </c>
+      <c r="H98" s="1">
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>12.4253</v>
       </c>
@@ -1866,13 +2462,19 @@
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
-        <v>448.18057099999999</v>
+        <v>345.17483400000003</v>
       </c>
       <c r="E99" s="1">
         <v>1019.11</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G99" s="1">
+        <v>481443</v>
+      </c>
+      <c r="H99" s="1">
+        <v>12.144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>12.549300000000001</v>
       </c>
@@ -1881,13 +2483,19 @@
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>452.65325100000001</v>
+        <v>348.61955400000005</v>
       </c>
       <c r="E100" s="1">
         <v>992.346</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G100" s="1">
+        <v>481554</v>
+      </c>
+      <c r="H100" s="1">
+        <v>12.268000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>12.673299999999999</v>
       </c>
@@ -1896,13 +2504,19 @@
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>457.12593099999998</v>
+        <v>352.06427400000001</v>
       </c>
       <c r="E101" s="1">
         <v>928.89400000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G101" s="1">
+        <v>480755</v>
+      </c>
+      <c r="H101" s="1">
+        <v>12.391999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>12.7973</v>
       </c>
@@ -1911,13 +2525,19 @@
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>461.59861100000001</v>
+        <v>355.50899400000003</v>
       </c>
       <c r="E102" s="1">
         <v>927.90200000000004</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G102" s="1">
+        <v>482162</v>
+      </c>
+      <c r="H102" s="1">
+        <v>12.516</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>12.9213</v>
       </c>
@@ -1926,13 +2546,19 @@
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
-        <v>466.07129100000003</v>
+        <v>358.95371400000005</v>
       </c>
       <c r="E103" s="1">
         <v>907.08299999999997</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G103" s="1">
+        <v>482239</v>
+      </c>
+      <c r="H103" s="1">
+        <v>12.64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>13.045299999999999</v>
       </c>
@@ -1941,13 +2567,19 @@
       </c>
       <c r="C104">
         <f t="shared" si="1"/>
-        <v>470.543971</v>
+        <v>362.39843400000001</v>
       </c>
       <c r="E104" s="1">
         <v>801.00199999999995</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G104" s="1">
+        <v>482665</v>
+      </c>
+      <c r="H104" s="1">
+        <v>12.763999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>13.1693</v>
       </c>
@@ -1956,13 +2588,19 @@
       </c>
       <c r="C105">
         <f t="shared" si="1"/>
-        <v>475.01665099999997</v>
+        <v>365.84315400000003</v>
       </c>
       <c r="E105" s="1">
         <v>840.65800000000002</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G105" s="1">
+        <v>481149</v>
+      </c>
+      <c r="H105" s="1">
+        <v>12.888</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>13.2933</v>
       </c>
@@ -1971,13 +2609,19 @@
       </c>
       <c r="C106">
         <f t="shared" si="1"/>
-        <v>479.48933099999999</v>
+        <v>369.28787400000004</v>
       </c>
       <c r="E106" s="1">
         <v>809.92499999999995</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G106" s="1">
+        <v>482481</v>
+      </c>
+      <c r="H106" s="1">
+        <v>13.012</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>13.417299999999999</v>
       </c>
@@ -1986,13 +2630,19 @@
       </c>
       <c r="C107">
         <f t="shared" si="1"/>
-        <v>483.96201099999996</v>
+        <v>372.73259400000001</v>
       </c>
       <c r="E107" s="1">
         <v>776.21699999999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G107" s="1">
+        <v>481457</v>
+      </c>
+      <c r="H107" s="1">
+        <v>13.135999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>13.5413</v>
       </c>
@@ -2001,13 +2651,19 @@
       </c>
       <c r="C108">
         <f t="shared" si="1"/>
-        <v>488.43469099999999</v>
+        <v>376.17731400000002</v>
       </c>
       <c r="E108" s="1">
         <v>748.45799999999997</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G108" s="1">
+        <v>480583</v>
+      </c>
+      <c r="H108" s="1">
+        <v>13.26</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>13.6653</v>
       </c>
@@ -2016,13 +2672,19 @@
       </c>
       <c r="C109">
         <f t="shared" si="1"/>
-        <v>492.90737100000001</v>
+        <v>379.62203400000004</v>
       </c>
       <c r="E109" s="1">
         <v>653.28499999999997</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G109" s="1">
+        <v>481931</v>
+      </c>
+      <c r="H109" s="1">
+        <v>13.384</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>13.789300000000001</v>
       </c>
@@ -2031,13 +2693,19 @@
       </c>
       <c r="C110">
         <f t="shared" si="1"/>
-        <v>497.38005100000004</v>
+        <v>383.06675400000006</v>
       </c>
       <c r="E110" s="1">
         <v>676.08699999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G110" s="1">
+        <v>481590</v>
+      </c>
+      <c r="H110" s="1">
+        <v>13.507999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>13.9133</v>
       </c>
@@ -2046,13 +2714,19 @@
       </c>
       <c r="C111">
         <f t="shared" si="1"/>
-        <v>501.85273100000001</v>
+        <v>386.51147400000002</v>
       </c>
       <c r="E111" s="1">
         <v>699.88</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G111" s="1">
+        <v>481504</v>
+      </c>
+      <c r="H111" s="1">
+        <v>13.632</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>14.0373</v>
       </c>
@@ -2061,13 +2735,19 @@
       </c>
       <c r="C112">
         <f t="shared" si="1"/>
-        <v>506.32541100000003</v>
+        <v>389.95619400000004</v>
       </c>
       <c r="E112" s="1">
         <v>629.49199999999996</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G112" s="1">
+        <v>480711</v>
+      </c>
+      <c r="H112" s="1">
+        <v>13.756</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>14.161300000000001</v>
       </c>
@@ -2076,13 +2756,19 @@
       </c>
       <c r="C113">
         <f t="shared" si="1"/>
-        <v>510.79809100000006</v>
+        <v>393.40091400000006</v>
       </c>
       <c r="E113" s="1">
         <v>622.55200000000002</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G113" s="1">
+        <v>481488</v>
+      </c>
+      <c r="H113" s="1">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>14.285299999999999</v>
       </c>
@@ -2091,13 +2777,19 @@
       </c>
       <c r="C114">
         <f t="shared" si="1"/>
-        <v>515.27077099999997</v>
+        <v>396.84563400000002</v>
       </c>
       <c r="E114" s="1">
         <v>619.57799999999997</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G114" s="1">
+        <v>482273</v>
+      </c>
+      <c r="H114" s="1">
+        <v>14.004</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>14.4093</v>
       </c>
@@ -2106,13 +2798,19 @@
       </c>
       <c r="C115">
         <f t="shared" si="1"/>
-        <v>519.74345100000005</v>
+        <v>400.29035400000004</v>
       </c>
       <c r="E115" s="1">
         <v>588.846</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G115" s="1">
+        <v>482702</v>
+      </c>
+      <c r="H115" s="1">
+        <v>14.128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>14.533300000000001</v>
       </c>
@@ -2121,13 +2819,19 @@
       </c>
       <c r="C116">
         <f t="shared" si="1"/>
-        <v>524.21613100000002</v>
+        <v>403.73507400000005</v>
       </c>
       <c r="E116" s="1">
         <v>549.19100000000003</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G116" s="1">
+        <v>481341</v>
+      </c>
+      <c r="H116" s="1">
+        <v>14.252000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>14.657299999999999</v>
       </c>
@@ -2136,13 +2840,19 @@
       </c>
       <c r="C117">
         <f t="shared" si="1"/>
-        <v>528.68881099999999</v>
+        <v>407.17979400000002</v>
       </c>
       <c r="E117" s="1">
         <v>500.61500000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G117" s="1">
+        <v>482606</v>
+      </c>
+      <c r="H117" s="1">
+        <v>14.375999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>14.7813</v>
       </c>
@@ -2151,13 +2861,19 @@
       </c>
       <c r="C118">
         <f t="shared" si="1"/>
-        <v>533.16149099999996</v>
+        <v>410.62451400000003</v>
       </c>
       <c r="E118" s="1">
         <v>475.83100000000002</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G118" s="1">
+        <v>483842</v>
+      </c>
+      <c r="H118" s="1">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>14.9053</v>
       </c>
@@ -2166,13 +2882,19 @@
       </c>
       <c r="C119">
         <f t="shared" si="1"/>
-        <v>537.63417100000004</v>
+        <v>414.06923400000005</v>
       </c>
       <c r="E119" s="1">
         <v>483.762</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G119" s="1">
+        <v>484827</v>
+      </c>
+      <c r="H119" s="1">
+        <v>14.624000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>15.029299999999999</v>
       </c>
@@ -2181,13 +2903,19 @@
       </c>
       <c r="C120">
         <f t="shared" si="1"/>
-        <v>542.10685100000001</v>
+        <v>417.51395400000001</v>
       </c>
       <c r="E120" s="1">
         <v>473.84800000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G120" s="1">
+        <v>484228</v>
+      </c>
+      <c r="H120" s="1">
+        <v>14.747999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>15.1533</v>
       </c>
@@ -2196,13 +2924,19 @@
       </c>
       <c r="C121">
         <f t="shared" si="1"/>
-        <v>546.57953099999997</v>
+        <v>420.95867400000003</v>
       </c>
       <c r="E121" s="1">
         <v>429.238</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G121" s="1">
+        <v>485282</v>
+      </c>
+      <c r="H121" s="1">
+        <v>14.872</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>15.2773</v>
       </c>
@@ -2211,13 +2945,19 @@
       </c>
       <c r="C122">
         <f t="shared" si="1"/>
-        <v>551.05221100000006</v>
+        <v>424.40339400000005</v>
       </c>
       <c r="E122" s="1">
         <v>461.952</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G122" s="1">
+        <v>484618</v>
+      </c>
+      <c r="H122" s="1">
+        <v>14.996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>15.401300000000001</v>
       </c>
@@ -2226,13 +2966,19 @@
       </c>
       <c r="C123">
         <f t="shared" si="1"/>
-        <v>555.52489100000003</v>
+        <v>427.84811400000007</v>
       </c>
       <c r="E123" s="1">
         <v>379.67099999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G123" s="1">
+        <v>483778</v>
+      </c>
+      <c r="H123" s="1">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>15.5253</v>
       </c>
@@ -2241,13 +2987,19 @@
       </c>
       <c r="C124">
         <f t="shared" si="1"/>
-        <v>559.99757099999999</v>
+        <v>431.29283400000003</v>
       </c>
       <c r="E124" s="1">
         <v>374.714</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G124" s="1">
+        <v>481556</v>
+      </c>
+      <c r="H124" s="1">
+        <v>15.244</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>15.6493</v>
       </c>
@@ -2256,13 +3008,19 @@
       </c>
       <c r="C125">
         <f t="shared" si="1"/>
-        <v>564.47025099999996</v>
+        <v>434.73755400000005</v>
       </c>
       <c r="E125" s="1">
         <v>375.70499999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G125" s="1">
+        <v>481975</v>
+      </c>
+      <c r="H125" s="1">
+        <v>15.368</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>15.773300000000001</v>
       </c>
@@ -2271,13 +3029,19 @@
       </c>
       <c r="C126">
         <f t="shared" si="1"/>
-        <v>568.94293100000004</v>
+        <v>438.18227400000006</v>
       </c>
       <c r="E126" s="1">
         <v>344.97399999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G126" s="1">
+        <v>481103</v>
+      </c>
+      <c r="H126" s="1">
+        <v>15.492000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>15.8973</v>
       </c>
@@ -2286,13 +3050,19 @@
       </c>
       <c r="C127">
         <f t="shared" si="1"/>
-        <v>573.41561100000001</v>
+        <v>441.62699400000002</v>
       </c>
       <c r="E127" s="1">
         <v>340.017</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G127" s="1">
+        <v>479452</v>
+      </c>
+      <c r="H127" s="1">
+        <v>15.616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>16.0213</v>
       </c>
@@ -2301,13 +3071,19 @@
       </c>
       <c r="C128">
         <f t="shared" si="1"/>
-        <v>577.88829099999998</v>
+        <v>445.07171400000004</v>
       </c>
       <c r="E128" s="1">
         <v>337.04300000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G128" s="1">
+        <v>479105</v>
+      </c>
+      <c r="H128" s="1">
+        <v>15.74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>16.145299999999999</v>
       </c>
@@ -2316,13 +3092,19 @@
       </c>
       <c r="C129">
         <f t="shared" si="1"/>
-        <v>582.36097099999995</v>
+        <v>448.516434</v>
       </c>
       <c r="E129" s="1">
         <v>303.33800000000002</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G129" s="1">
+        <v>480025</v>
+      </c>
+      <c r="H129" s="1">
+        <v>15.864000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>16.269300000000001</v>
       </c>
@@ -2331,13 +3113,19 @@
       </c>
       <c r="C130">
         <f t="shared" si="1"/>
-        <v>586.83365100000003</v>
+        <v>451.96115400000008</v>
       </c>
       <c r="E130" s="1">
         <v>284.50299999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G130" s="1">
+        <v>479944</v>
+      </c>
+      <c r="H130" s="1">
+        <v>15.988</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>16.3933</v>
       </c>
@@ -2346,13 +3134,19 @@
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C194" si="2">A131*$D$2</f>
-        <v>591.306331</v>
+        <v>455.40587400000004</v>
       </c>
       <c r="E131" s="1">
         <v>296.399</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G131" s="1">
+        <v>480597</v>
+      </c>
+      <c r="H131" s="1">
+        <v>16.111999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>16.517299999999999</v>
       </c>
@@ -2361,13 +3155,19 @@
       </c>
       <c r="C132">
         <f t="shared" si="2"/>
-        <v>595.77901099999997</v>
+        <v>458.850594</v>
       </c>
       <c r="E132" s="1">
         <v>290.45100000000002</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G132" s="1">
+        <v>481915</v>
+      </c>
+      <c r="H132" s="1">
+        <v>16.236000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>16.641300000000001</v>
       </c>
@@ -2376,13 +3176,19 @@
       </c>
       <c r="C133">
         <f t="shared" si="2"/>
-        <v>600.25169100000005</v>
+        <v>462.29531400000008</v>
       </c>
       <c r="E133" s="1">
         <v>248.816</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G133" s="1">
+        <v>483793</v>
+      </c>
+      <c r="H133" s="1">
+        <v>16.36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>16.7653</v>
       </c>
@@ -2391,13 +3197,19 @@
       </c>
       <c r="C134">
         <f t="shared" si="2"/>
-        <v>604.72437100000002</v>
+        <v>465.74003400000004</v>
       </c>
       <c r="E134" s="1">
         <v>276.57299999999998</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G134" s="1">
+        <v>484546</v>
+      </c>
+      <c r="H134" s="1">
+        <v>16.484000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>16.889299999999999</v>
       </c>
@@ -2406,13 +3218,19 @@
       </c>
       <c r="C135">
         <f t="shared" si="2"/>
-        <v>609.19705099999999</v>
+        <v>469.184754</v>
       </c>
       <c r="E135" s="1">
         <v>209.16300000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G135" s="1">
+        <v>484268</v>
+      </c>
+      <c r="H135" s="1">
+        <v>16.608000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>17.013300000000001</v>
       </c>
@@ -2421,13 +3239,19 @@
       </c>
       <c r="C136">
         <f t="shared" si="2"/>
-        <v>613.66973100000007</v>
+        <v>472.62947400000007</v>
       </c>
       <c r="E136" s="1">
         <v>209.16300000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G136" s="1">
+        <v>483251</v>
+      </c>
+      <c r="H136" s="1">
+        <v>16.731999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>17.1373</v>
       </c>
@@ -2436,13 +3260,19 @@
       </c>
       <c r="C137">
         <f t="shared" si="2"/>
-        <v>618.14241100000004</v>
+        <v>476.07419400000003</v>
       </c>
       <c r="E137" s="1">
         <v>219.07599999999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G137" s="1">
+        <v>482246</v>
+      </c>
+      <c r="H137" s="1">
+        <v>16.856000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>17.261299999999999</v>
       </c>
@@ -2451,13 +3281,19 @@
       </c>
       <c r="C138">
         <f t="shared" si="2"/>
-        <v>622.61509100000001</v>
+        <v>479.518914</v>
       </c>
       <c r="E138" s="1">
         <v>199.25</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G138" s="1">
+        <v>481693</v>
+      </c>
+      <c r="H138" s="1">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>17.385300000000001</v>
       </c>
@@ -2466,13 +3302,19 @@
       </c>
       <c r="C139">
         <f t="shared" si="2"/>
-        <v>627.08777100000009</v>
+        <v>482.96363400000007</v>
       </c>
       <c r="E139" s="1">
         <v>170.50200000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G139" s="1">
+        <v>481740</v>
+      </c>
+      <c r="H139" s="1">
+        <v>17.103999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>17.5093</v>
       </c>
@@ -2481,13 +3323,19 @@
       </c>
       <c r="C140">
         <f t="shared" si="2"/>
-        <v>631.56045099999994</v>
+        <v>486.40835400000003</v>
       </c>
       <c r="E140" s="1">
         <v>164.554</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G140" s="1">
+        <v>481184</v>
+      </c>
+      <c r="H140" s="1">
+        <v>17.228000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>17.633299999999998</v>
       </c>
@@ -2496,13 +3344,19 @@
       </c>
       <c r="C141">
         <f t="shared" si="2"/>
-        <v>636.03313099999991</v>
+        <v>489.85307399999999</v>
       </c>
       <c r="E141" s="1">
         <v>163.56299999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G141" s="1">
+        <v>480607</v>
+      </c>
+      <c r="H141" s="1">
+        <v>17.352</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>17.757300000000001</v>
       </c>
@@ -2511,13 +3365,19 @@
       </c>
       <c r="C142">
         <f t="shared" si="2"/>
-        <v>640.50581099999999</v>
+        <v>493.29779400000007</v>
       </c>
       <c r="E142" s="1">
         <v>191.31899999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G142" s="1">
+        <v>481289</v>
+      </c>
+      <c r="H142" s="1">
+        <v>17.475999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>17.8813</v>
       </c>
@@ -2526,13 +3386,19 @@
       </c>
       <c r="C143">
         <f t="shared" si="2"/>
-        <v>644.97849099999996</v>
+        <v>496.74251400000003</v>
       </c>
       <c r="E143" s="1">
         <v>184.38</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G143" s="1">
+        <v>481081</v>
+      </c>
+      <c r="H143" s="1">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>18.005299999999998</v>
       </c>
@@ -2541,13 +3407,19 @@
       </c>
       <c r="C144">
         <f t="shared" si="2"/>
-        <v>649.45117099999993</v>
+        <v>500.18723399999999</v>
       </c>
       <c r="E144" s="1">
         <v>163.56299999999999</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G144" s="1">
+        <v>481160</v>
+      </c>
+      <c r="H144" s="1">
+        <v>17.724</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>18.129300000000001</v>
       </c>
@@ -2556,13 +3428,19 @@
       </c>
       <c r="C145">
         <f t="shared" si="2"/>
-        <v>653.92385100000001</v>
+        <v>503.63195400000006</v>
       </c>
       <c r="E145" s="1">
         <v>178.43199999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G145" s="1">
+        <v>480629</v>
+      </c>
+      <c r="H145" s="1">
+        <v>17.847999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>18.253299999999999</v>
       </c>
@@ -2571,13 +3449,19 @@
       </c>
       <c r="C146">
         <f t="shared" si="2"/>
-        <v>658.39653099999998</v>
+        <v>507.07667400000003</v>
       </c>
       <c r="E146" s="1">
         <v>172.48500000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G146" s="1">
+        <v>480746</v>
+      </c>
+      <c r="H146" s="1">
+        <v>17.972000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>18.377300000000002</v>
       </c>
@@ -2586,13 +3470,19 @@
       </c>
       <c r="C147">
         <f t="shared" si="2"/>
-        <v>662.86921100000006</v>
+        <v>510.52139400000004</v>
       </c>
       <c r="E147" s="1">
         <v>171.49299999999999</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G147" s="1">
+        <v>480551</v>
+      </c>
+      <c r="H147" s="1">
+        <v>18.096</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>18.501300000000001</v>
       </c>
@@ -2601,13 +3491,19 @@
       </c>
       <c r="C148">
         <f t="shared" si="2"/>
-        <v>667.34189100000003</v>
+        <v>513.96611400000006</v>
       </c>
       <c r="E148" s="1">
         <v>148.69300000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G148" s="1">
+        <v>481306</v>
+      </c>
+      <c r="H148" s="1">
+        <v>18.22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>18.625299999999999</v>
       </c>
@@ -2616,13 +3512,19 @@
       </c>
       <c r="C149">
         <f t="shared" si="2"/>
-        <v>671.814571</v>
+        <v>517.41083400000002</v>
       </c>
       <c r="E149" s="1">
         <v>143.73699999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G149" s="1">
+        <v>481792</v>
+      </c>
+      <c r="H149" s="1">
+        <v>18.344000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>18.749300000000002</v>
       </c>
@@ -2631,13 +3533,19 @@
       </c>
       <c r="C150">
         <f t="shared" si="2"/>
-        <v>676.28725100000008</v>
+        <v>520.8555540000001</v>
       </c>
       <c r="E150" s="1">
         <v>139.77199999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G150" s="1">
+        <v>482990</v>
+      </c>
+      <c r="H150" s="1">
+        <v>18.468</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>18.8733</v>
       </c>
@@ -2646,13 +3554,19 @@
       </c>
       <c r="C151">
         <f t="shared" si="2"/>
-        <v>680.75993100000005</v>
+        <v>524.30027400000006</v>
       </c>
       <c r="E151" s="1">
         <v>128.86699999999999</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G151" s="1">
+        <v>483321</v>
+      </c>
+      <c r="H151" s="1">
+        <v>18.591999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>18.997299999999999</v>
       </c>
@@ -2661,13 +3575,19 @@
       </c>
       <c r="C152">
         <f t="shared" si="2"/>
-        <v>685.23261100000002</v>
+        <v>527.74499400000002</v>
       </c>
       <c r="E152" s="1">
         <v>107.059</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G152" s="1">
+        <v>484583</v>
+      </c>
+      <c r="H152" s="1">
+        <v>18.716000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>19.121300000000002</v>
       </c>
@@ -2676,13 +3596,19 @@
       </c>
       <c r="C153">
         <f t="shared" si="2"/>
-        <v>689.7052910000001</v>
+        <v>531.18971400000009</v>
       </c>
       <c r="E153" s="1">
         <v>121.928</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G153" s="1">
+        <v>484953</v>
+      </c>
+      <c r="H153" s="1">
+        <v>18.84</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>19.2453</v>
       </c>
@@ -2691,13 +3617,19 @@
       </c>
       <c r="C154">
         <f t="shared" si="2"/>
-        <v>694.17797100000007</v>
+        <v>534.63443400000006</v>
       </c>
       <c r="E154" s="1">
         <v>109.041</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G154" s="1">
+        <v>484059</v>
+      </c>
+      <c r="H154" s="1">
+        <v>18.963999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>19.369299999999999</v>
       </c>
@@ -2706,13 +3638,19 @@
       </c>
       <c r="C155">
         <f t="shared" si="2"/>
-        <v>698.65065099999993</v>
+        <v>538.07915400000002</v>
       </c>
       <c r="E155" s="1">
         <v>113.00700000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G155" s="1">
+        <v>482981</v>
+      </c>
+      <c r="H155" s="1">
+        <v>19.088000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>19.493300000000001</v>
       </c>
@@ -2721,13 +3659,19 @@
       </c>
       <c r="C156">
         <f t="shared" si="2"/>
-        <v>703.12333100000001</v>
+        <v>541.52387400000009</v>
       </c>
       <c r="E156" s="1">
         <v>101.111</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G156" s="1">
+        <v>481549</v>
+      </c>
+      <c r="H156" s="1">
+        <v>19.212</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>19.6173</v>
       </c>
@@ -2736,13 +3680,19 @@
       </c>
       <c r="C157">
         <f t="shared" si="2"/>
-        <v>707.59601099999998</v>
+        <v>544.96859400000005</v>
       </c>
       <c r="E157" s="1">
         <v>97.146000000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G157" s="1">
+        <v>480469</v>
+      </c>
+      <c r="H157" s="1">
+        <v>19.335999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>19.741299999999999</v>
       </c>
@@ -2751,13 +3701,19 @@
       </c>
       <c r="C158">
         <f t="shared" si="2"/>
-        <v>712.06869099999994</v>
+        <v>548.41331400000001</v>
       </c>
       <c r="E158" s="1">
         <v>91.1982</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G158" s="1">
+        <v>480187</v>
+      </c>
+      <c r="H158" s="1">
+        <v>19.46</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>19.865300000000001</v>
       </c>
@@ -2766,13 +3722,19 @@
       </c>
       <c r="C159">
         <f t="shared" si="2"/>
-        <v>716.54137100000003</v>
+        <v>551.85803400000009</v>
       </c>
       <c r="E159" s="1">
         <v>86.241699999999994</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G159" s="1">
+        <v>481101</v>
+      </c>
+      <c r="H159" s="1">
+        <v>19.584</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>19.9893</v>
       </c>
@@ -2781,13 +3743,19 @@
       </c>
       <c r="C160">
         <f t="shared" si="2"/>
-        <v>721.01405099999999</v>
+        <v>555.30275400000005</v>
       </c>
       <c r="E160" s="1">
         <v>86.241699999999994</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G160" s="1">
+        <v>480658</v>
+      </c>
+      <c r="H160" s="1">
+        <v>19.707999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>20.113299999999999</v>
       </c>
@@ -2796,13 +3764,19 @@
       </c>
       <c r="C161">
         <f t="shared" si="2"/>
-        <v>725.48673099999996</v>
+        <v>558.74747400000001</v>
       </c>
       <c r="E161" s="1">
         <v>81.285300000000007</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G161" s="1">
+        <v>479909</v>
+      </c>
+      <c r="H161" s="1">
+        <v>19.832000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>20.237300000000001</v>
       </c>
@@ -2811,13 +3785,19 @@
       </c>
       <c r="C162">
         <f t="shared" si="2"/>
-        <v>729.95941100000005</v>
+        <v>562.19219400000009</v>
       </c>
       <c r="E162" s="1">
         <v>74.346199999999996</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G162" s="1">
+        <v>479400</v>
+      </c>
+      <c r="H162" s="1">
+        <v>19.956</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>20.3613</v>
       </c>
@@ -2826,13 +3806,19 @@
       </c>
       <c r="C163">
         <f t="shared" si="2"/>
-        <v>734.43209100000001</v>
+        <v>565.63691400000005</v>
       </c>
       <c r="E163" s="1">
         <v>84.259200000000007</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G163" s="1">
+        <v>481394</v>
+      </c>
+      <c r="H163" s="1">
+        <v>20.079999999999998</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>20.485299999999999</v>
       </c>
@@ -2841,13 +3827,19 @@
       </c>
       <c r="C164">
         <f t="shared" si="2"/>
-        <v>738.90477099999998</v>
+        <v>569.08163400000001</v>
       </c>
       <c r="E164" s="1">
         <v>78.311400000000006</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G164" s="1">
+        <v>480270</v>
+      </c>
+      <c r="H164" s="1">
+        <v>20.204000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>20.609300000000001</v>
       </c>
@@ -2856,13 +3848,19 @@
       </c>
       <c r="C165">
         <f t="shared" si="2"/>
-        <v>743.37745100000006</v>
+        <v>572.52635400000008</v>
       </c>
       <c r="E165" s="1">
         <v>78.311400000000006</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G165" s="1">
+        <v>481469</v>
+      </c>
+      <c r="H165" s="1">
+        <v>20.327999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>20.7333</v>
       </c>
@@ -2871,13 +3869,19 @@
       </c>
       <c r="C166">
         <f t="shared" si="2"/>
-        <v>747.85013100000003</v>
+        <v>575.97107400000004</v>
       </c>
       <c r="E166" s="1">
         <v>73.354900000000001</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G166" s="1">
+        <v>484169</v>
+      </c>
+      <c r="H166" s="1">
+        <v>20.452000000000002</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>20.857299999999999</v>
       </c>
@@ -2886,13 +3890,19 @@
       </c>
       <c r="C167">
         <f t="shared" si="2"/>
-        <v>752.322811</v>
+        <v>579.41579400000001</v>
       </c>
       <c r="E167" s="1">
         <v>68.398499999999999</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G167" s="1">
+        <v>482698</v>
+      </c>
+      <c r="H167" s="1">
+        <v>20.576000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>20.981300000000001</v>
       </c>
@@ -2901,13 +3911,19 @@
       </c>
       <c r="C168">
         <f t="shared" si="2"/>
-        <v>756.79549100000008</v>
+        <v>582.86051400000008</v>
       </c>
       <c r="E168" s="1">
         <v>68.398499999999999</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G168" s="1">
+        <v>481980</v>
+      </c>
+      <c r="H168" s="1">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>21.1053</v>
       </c>
@@ -2916,13 +3932,19 @@
       </c>
       <c r="C169">
         <f t="shared" si="2"/>
-        <v>761.26817100000005</v>
+        <v>586.30523400000004</v>
       </c>
       <c r="E169" s="1">
         <v>69.389799999999994</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G169" s="1">
+        <v>479257</v>
+      </c>
+      <c r="H169" s="1">
+        <v>20.824000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>21.229299999999999</v>
       </c>
@@ -2931,13 +3953,19 @@
       </c>
       <c r="C170">
         <f t="shared" si="2"/>
-        <v>765.74085099999991</v>
+        <v>589.749954</v>
       </c>
       <c r="E170" s="1">
         <v>61.459499999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G170" s="1">
+        <v>479271</v>
+      </c>
+      <c r="H170" s="1">
+        <v>20.948</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>21.353300000000001</v>
       </c>
@@ -2946,13 +3974,19 @@
       </c>
       <c r="C171">
         <f t="shared" si="2"/>
-        <v>770.21353099999999</v>
+        <v>593.19467400000008</v>
       </c>
       <c r="E171" s="1">
         <v>65.424700000000001</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G171" s="1">
+        <v>478969</v>
+      </c>
+      <c r="H171" s="1">
+        <v>21.071999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>21.4773</v>
       </c>
@@ -2961,13 +3995,19 @@
       </c>
       <c r="C172">
         <f t="shared" si="2"/>
-        <v>774.68621099999996</v>
+        <v>596.63939400000004</v>
       </c>
       <c r="E172" s="1">
         <v>62.450800000000001</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G172" s="1">
+        <v>479048</v>
+      </c>
+      <c r="H172" s="1">
+        <v>21.196000000000002</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>21.601299999999998</v>
       </c>
@@ -2976,13 +4016,19 @@
       </c>
       <c r="C173">
         <f t="shared" si="2"/>
-        <v>779.15889099999993</v>
+        <v>600.084114</v>
       </c>
       <c r="E173" s="1">
         <v>57.494399999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G173" s="1">
+        <v>479936</v>
+      </c>
+      <c r="H173" s="1">
+        <v>21.32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>21.725300000000001</v>
       </c>
@@ -2991,13 +4037,19 @@
       </c>
       <c r="C174">
         <f t="shared" si="2"/>
-        <v>783.63157100000001</v>
+        <v>603.52883400000007</v>
       </c>
       <c r="E174" s="1">
         <v>53.529200000000003</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G174" s="1">
+        <v>480135</v>
+      </c>
+      <c r="H174" s="1">
+        <v>21.443999999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>21.849299999999999</v>
       </c>
@@ -3006,13 +4058,19 @@
       </c>
       <c r="C175">
         <f t="shared" si="2"/>
-        <v>788.10425099999998</v>
+        <v>606.97355400000004</v>
       </c>
       <c r="E175" s="1">
         <v>43.616399999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G175" s="1">
+        <v>481297</v>
+      </c>
+      <c r="H175" s="1">
+        <v>21.568000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>21.973299999999998</v>
       </c>
@@ -3021,13 +4079,19 @@
       </c>
       <c r="C176">
         <f t="shared" si="2"/>
-        <v>792.57693099999995</v>
+        <v>610.418274</v>
       </c>
       <c r="E176" s="1">
         <v>38.6599</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G176" s="1">
+        <v>482474</v>
+      </c>
+      <c r="H176" s="1">
+        <v>21.692</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>22.097300000000001</v>
       </c>
@@ -3036,13 +4100,19 @@
       </c>
       <c r="C177">
         <f t="shared" si="2"/>
-        <v>797.04961100000003</v>
+        <v>613.86299400000007</v>
       </c>
       <c r="E177" s="1">
         <v>44.607599999999998</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G177" s="1">
+        <v>480498</v>
+      </c>
+      <c r="H177" s="1">
+        <v>21.815999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>22.221299999999999</v>
       </c>
@@ -3051,13 +4121,19 @@
       </c>
       <c r="C178">
         <f t="shared" si="2"/>
-        <v>801.522291</v>
+        <v>617.30771400000003</v>
       </c>
       <c r="E178" s="1">
         <v>43.616399999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G178" s="1">
+        <v>477910</v>
+      </c>
+      <c r="H178" s="1">
+        <v>21.94</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>22.345300000000002</v>
       </c>
@@ -3066,13 +4142,19 @@
       </c>
       <c r="C179">
         <f t="shared" si="2"/>
-        <v>805.99497100000008</v>
+        <v>620.75243400000011</v>
       </c>
       <c r="E179" s="1">
         <v>48.572800000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G179" s="1">
+        <v>478062</v>
+      </c>
+      <c r="H179" s="1">
+        <v>22.064</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>22.4693</v>
       </c>
@@ -3081,13 +4163,19 @@
       </c>
       <c r="C180">
         <f t="shared" si="2"/>
-        <v>810.46765100000005</v>
+        <v>624.19715400000007</v>
       </c>
       <c r="E180" s="1">
         <v>52.5379</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G180" s="1">
+        <v>478386</v>
+      </c>
+      <c r="H180" s="1">
+        <v>22.187999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>22.593299999999999</v>
       </c>
@@ -3096,13 +4184,19 @@
       </c>
       <c r="C181">
         <f t="shared" si="2"/>
-        <v>814.94033100000001</v>
+        <v>627.64187400000003</v>
       </c>
       <c r="E181" s="1">
         <v>43.616399999999999</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G181" s="1">
+        <v>479528</v>
+      </c>
+      <c r="H181" s="1">
+        <v>22.312000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>22.717300000000002</v>
       </c>
@@ -3111,13 +4205,19 @@
       </c>
       <c r="C182">
         <f t="shared" si="2"/>
-        <v>819.4130110000001</v>
+        <v>631.0865940000001</v>
       </c>
       <c r="E182" s="1">
         <v>46.590200000000003</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G182" s="1">
+        <v>482085</v>
+      </c>
+      <c r="H182" s="1">
+        <v>22.436</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>22.8413</v>
       </c>
@@ -3126,13 +4226,19 @@
       </c>
       <c r="C183">
         <f t="shared" si="2"/>
-        <v>823.88569100000007</v>
+        <v>634.53131400000007</v>
       </c>
       <c r="E183" s="1">
         <v>33.703499999999998</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G183" s="1">
+        <v>479114</v>
+      </c>
+      <c r="H183" s="1">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>22.965299999999999</v>
       </c>
@@ -3141,13 +4247,19 @@
       </c>
       <c r="C184">
         <f t="shared" si="2"/>
-        <v>828.35837099999992</v>
+        <v>637.97603400000003</v>
       </c>
       <c r="E184" s="1">
         <v>44.607700000000001</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G184" s="1">
+        <v>478512</v>
+      </c>
+      <c r="H184" s="1">
+        <v>22.684000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>23.089300000000001</v>
       </c>
@@ -3156,13 +4268,19 @@
       </c>
       <c r="C185">
         <f t="shared" si="2"/>
-        <v>832.83105100000012</v>
+        <v>641.4207540000001</v>
       </c>
       <c r="E185" s="1">
         <v>40.642499999999998</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G185" s="1">
+        <v>478734</v>
+      </c>
+      <c r="H185" s="1">
+        <v>22.808</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>23.2133</v>
       </c>
@@ -3171,13 +4289,19 @@
       </c>
       <c r="C186">
         <f t="shared" si="2"/>
-        <v>837.30373099999997</v>
+        <v>644.86547400000006</v>
       </c>
       <c r="E186" s="1">
         <v>32.712200000000003</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G186" s="1">
+        <v>482477</v>
+      </c>
+      <c r="H186" s="1">
+        <v>22.931999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>23.337299999999999</v>
       </c>
@@ -3186,13 +4310,19 @@
       </c>
       <c r="C187">
         <f t="shared" si="2"/>
-        <v>841.77641099999994</v>
+        <v>648.31019400000002</v>
       </c>
       <c r="E187" s="1">
         <v>34.694800000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G187" s="1">
+        <v>481397</v>
+      </c>
+      <c r="H187" s="1">
+        <v>23.056000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>23.461300000000001</v>
       </c>
@@ -3201,13 +4331,19 @@
       </c>
       <c r="C188">
         <f t="shared" si="2"/>
-        <v>846.24909100000002</v>
+        <v>651.7549140000001</v>
       </c>
       <c r="E188" s="1">
         <v>39.651299999999999</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G188" s="1">
+        <v>478797</v>
+      </c>
+      <c r="H188" s="1">
+        <v>23.18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>23.5853</v>
       </c>
@@ -3216,13 +4352,19 @@
       </c>
       <c r="C189">
         <f t="shared" si="2"/>
-        <v>850.72177099999999</v>
+        <v>655.19963400000006</v>
       </c>
       <c r="E189" s="1">
         <v>23.790700000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G189" s="1">
+        <v>478135</v>
+      </c>
+      <c r="H189" s="1">
+        <v>23.303999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>23.709299999999999</v>
       </c>
@@ -3231,13 +4373,19 @@
       </c>
       <c r="C190">
         <f t="shared" si="2"/>
-        <v>855.19445099999996</v>
+        <v>658.64435400000002</v>
       </c>
       <c r="E190" s="1">
         <v>31.721</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G190" s="1">
+        <v>478599</v>
+      </c>
+      <c r="H190" s="1">
+        <v>23.428000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>23.833300000000001</v>
       </c>
@@ -3246,13 +4394,19 @@
       </c>
       <c r="C191">
         <f t="shared" si="2"/>
-        <v>859.66713100000004</v>
+        <v>662.0890740000001</v>
       </c>
       <c r="E191" s="1">
         <v>27.755800000000001</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G191" s="1">
+        <v>480943</v>
+      </c>
+      <c r="H191" s="1">
+        <v>23.552</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>23.9573</v>
       </c>
@@ -3261,13 +4415,19 @@
       </c>
       <c r="C192">
         <f t="shared" si="2"/>
-        <v>864.13981100000001</v>
+        <v>665.53379400000006</v>
       </c>
       <c r="E192" s="1">
         <v>28.7471</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G192" s="1">
+        <v>482701</v>
+      </c>
+      <c r="H192" s="1">
+        <v>23.675999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>24.081299999999999</v>
       </c>
@@ -3276,13 +4436,19 @@
       </c>
       <c r="C193">
         <f t="shared" si="2"/>
-        <v>868.61249099999998</v>
+        <v>668.97851400000002</v>
       </c>
       <c r="E193" s="1">
         <v>25.773299999999999</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G193" s="1">
+        <v>480312</v>
+      </c>
+      <c r="H193" s="1">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>24.205300000000001</v>
       </c>
@@ -3291,13 +4457,19 @@
       </c>
       <c r="C194">
         <f t="shared" si="2"/>
-        <v>873.08517100000006</v>
+        <v>672.42323400000009</v>
       </c>
       <c r="E194" s="1">
         <v>26.764500000000002</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G194" s="1">
+        <v>478996</v>
+      </c>
+      <c r="H194" s="1">
+        <v>23.923999999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>24.3293</v>
       </c>
@@ -3306,13 +4478,19 @@
       </c>
       <c r="C195">
         <f t="shared" ref="C195:C250" si="3">A195*$D$2</f>
-        <v>877.55785100000003</v>
+        <v>675.86795400000005</v>
       </c>
       <c r="E195" s="1">
         <v>26.764600000000002</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G195" s="1">
+        <v>478568</v>
+      </c>
+      <c r="H195" s="1">
+        <v>24.047999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>24.453299999999999</v>
       </c>
@@ -3321,13 +4499,19 @@
       </c>
       <c r="C196">
         <f t="shared" si="3"/>
-        <v>882.030531</v>
+        <v>679.31267400000002</v>
       </c>
       <c r="E196" s="1">
         <v>27.755800000000001</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G196" s="1">
+        <v>477793</v>
+      </c>
+      <c r="H196" s="1">
+        <v>24.172000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>24.577300000000001</v>
       </c>
@@ -3336,13 +4520,19 @@
       </c>
       <c r="C197">
         <f t="shared" si="3"/>
-        <v>886.50321100000008</v>
+        <v>682.75739400000009</v>
       </c>
       <c r="E197" s="1">
         <v>30.729700000000001</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G197" s="1">
+        <v>480001</v>
+      </c>
+      <c r="H197" s="1">
+        <v>24.295999999999999</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>24.7013</v>
       </c>
@@ -3351,13 +4541,19 @@
       </c>
       <c r="C198">
         <f t="shared" si="3"/>
-        <v>890.97589100000005</v>
+        <v>686.20211400000005</v>
       </c>
       <c r="E198" s="1">
         <v>25.773299999999999</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G198" s="1">
+        <v>481958</v>
+      </c>
+      <c r="H198" s="1">
+        <v>24.42</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>24.825299999999999</v>
       </c>
@@ -3366,13 +4562,19 @@
       </c>
       <c r="C199">
         <f t="shared" si="3"/>
-        <v>895.4485709999999</v>
+        <v>689.64683400000001</v>
       </c>
       <c r="E199" s="1">
         <v>20.8169</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G199" s="1">
+        <v>481860</v>
+      </c>
+      <c r="H199" s="1">
+        <v>24.544</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>24.949300000000001</v>
       </c>
@@ -3381,13 +4583,19 @@
       </c>
       <c r="C200">
         <f t="shared" si="3"/>
-        <v>899.92125099999998</v>
+        <v>693.09155400000009</v>
       </c>
       <c r="E200" s="1">
         <v>17.843</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G200" s="1">
+        <v>479170</v>
+      </c>
+      <c r="H200" s="1">
+        <v>24.667999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>25.0733</v>
       </c>
@@ -3396,13 +4604,19 @@
       </c>
       <c r="C201">
         <f t="shared" si="3"/>
-        <v>904.39393099999995</v>
+        <v>696.53627400000005</v>
       </c>
       <c r="E201" s="1">
         <v>14.869199999999999</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G201" s="1">
+        <v>478459</v>
+      </c>
+      <c r="H201" s="1">
+        <v>24.792000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>25.197299999999998</v>
       </c>
@@ -3411,13 +4625,19 @@
       </c>
       <c r="C202">
         <f t="shared" si="3"/>
-        <v>908.86661099999992</v>
+        <v>699.98099400000001</v>
       </c>
       <c r="E202" s="1">
         <v>24.782</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G202" s="1">
+        <v>478851</v>
+      </c>
+      <c r="H202" s="1">
+        <v>24.916</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>25.321300000000001</v>
       </c>
@@ -3426,13 +4646,19 @@
       </c>
       <c r="C203">
         <f t="shared" si="3"/>
-        <v>913.339291</v>
+        <v>703.42571400000008</v>
       </c>
       <c r="E203" s="1">
         <v>22.799399999999999</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G203" s="1">
+        <v>478071</v>
+      </c>
+      <c r="H203" s="1">
+        <v>25.04</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>25.4453</v>
       </c>
@@ -3441,13 +4667,19 @@
       </c>
       <c r="C204">
         <f t="shared" si="3"/>
-        <v>917.81197099999997</v>
+        <v>706.87043400000005</v>
       </c>
       <c r="E204" s="1">
         <v>20.8169</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G204" s="1">
+        <v>479148</v>
+      </c>
+      <c r="H204" s="1">
+        <v>25.164000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>25.569299999999998</v>
       </c>
@@ -3456,13 +4688,19 @@
       </c>
       <c r="C205">
         <f t="shared" si="3"/>
-        <v>922.28465099999994</v>
+        <v>710.31515400000001</v>
       </c>
       <c r="E205" s="1">
         <v>27.755800000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G205" s="1">
+        <v>479512</v>
+      </c>
+      <c r="H205" s="1">
+        <v>25.288</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>25.693300000000001</v>
       </c>
@@ -3471,13 +4709,19 @@
       </c>
       <c r="C206">
         <f t="shared" si="3"/>
-        <v>926.75733100000002</v>
+        <v>713.75987400000008</v>
       </c>
       <c r="E206" s="1">
         <v>17.843</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G206" s="1">
+        <v>478516</v>
+      </c>
+      <c r="H206" s="1">
+        <v>25.411999999999999</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>25.817299999999999</v>
       </c>
@@ -3486,13 +4730,19 @@
       </c>
       <c r="C207">
         <f t="shared" si="3"/>
-        <v>931.23001099999999</v>
+        <v>717.20459400000004</v>
       </c>
       <c r="E207" s="1">
         <v>16.851700000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G207" s="1">
+        <v>477294</v>
+      </c>
+      <c r="H207" s="1">
+        <v>25.536000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>25.941299999999998</v>
       </c>
@@ -3501,13 +4751,19 @@
       </c>
       <c r="C208">
         <f t="shared" si="3"/>
-        <v>935.70269099999996</v>
+        <v>720.649314</v>
       </c>
       <c r="E208" s="1">
         <v>16.851700000000001</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G208" s="1">
+        <v>478073</v>
+      </c>
+      <c r="H208" s="1">
+        <v>25.66</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>26.065300000000001</v>
       </c>
@@ -3516,13 +4772,19 @@
       </c>
       <c r="C209">
         <f t="shared" si="3"/>
-        <v>940.17537100000004</v>
+        <v>724.09403400000008</v>
       </c>
       <c r="E209" s="1">
         <v>21.8081</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G209" s="1">
+        <v>478044</v>
+      </c>
+      <c r="H209" s="1">
+        <v>25.783999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>26.189299999999999</v>
       </c>
@@ -3531,13 +4793,19 @@
       </c>
       <c r="C210">
         <f t="shared" si="3"/>
-        <v>944.64805100000001</v>
+        <v>727.53875400000004</v>
       </c>
       <c r="E210" s="1">
         <v>18.834299999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G210" s="1">
+        <v>478388</v>
+      </c>
+      <c r="H210" s="1">
+        <v>25.908000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>26.313300000000002</v>
       </c>
@@ -3546,13 +4814,19 @@
       </c>
       <c r="C211">
         <f t="shared" si="3"/>
-        <v>949.12073100000009</v>
+        <v>730.98347400000011</v>
       </c>
       <c r="E211" s="1">
         <v>15.8605</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G211" s="1">
+        <v>478439</v>
+      </c>
+      <c r="H211" s="1">
+        <v>26.032</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>26.4373</v>
       </c>
@@ -3561,13 +4835,19 @@
       </c>
       <c r="C212">
         <f t="shared" si="3"/>
-        <v>953.59341100000006</v>
+        <v>734.42819400000008</v>
       </c>
       <c r="E212" s="1">
         <v>11.895300000000001</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G212" s="1">
+        <v>480633</v>
+      </c>
+      <c r="H212" s="1">
+        <v>26.155999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>26.561299999999999</v>
       </c>
@@ -3576,13 +4856,19 @@
       </c>
       <c r="C213">
         <f t="shared" si="3"/>
-        <v>958.06609100000003</v>
+        <v>737.87291400000004</v>
       </c>
       <c r="E213" s="1">
         <v>13.8779</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G213" s="1">
+        <v>480671</v>
+      </c>
+      <c r="H213" s="1">
+        <v>26.28</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>26.685300000000002</v>
       </c>
@@ -3591,13 +4877,19 @@
       </c>
       <c r="C214">
         <f t="shared" si="3"/>
-        <v>962.53877100000011</v>
+        <v>741.31763400000011</v>
       </c>
       <c r="E214" s="1">
         <v>12.8866</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G214" s="1">
+        <v>480831</v>
+      </c>
+      <c r="H214" s="1">
+        <v>26.404</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>26.8093</v>
       </c>
@@ -3606,13 +4898,19 @@
       </c>
       <c r="C215">
         <f t="shared" si="3"/>
-        <v>967.01145099999997</v>
+        <v>744.76235400000007</v>
       </c>
       <c r="E215" s="1">
         <v>14.869199999999999</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G215" s="1">
+        <v>481244</v>
+      </c>
+      <c r="H215" s="1">
+        <v>26.527999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>26.933299999999999</v>
       </c>
@@ -3621,13 +4919,19 @@
       </c>
       <c r="C216">
         <f t="shared" si="3"/>
-        <v>971.48413099999993</v>
+        <v>748.20707400000003</v>
       </c>
       <c r="E216" s="1">
         <v>14.869199999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G216" s="1">
+        <v>480126</v>
+      </c>
+      <c r="H216" s="1">
+        <v>26.652000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>27.057300000000001</v>
       </c>
@@ -3636,13 +4940,19 @@
       </c>
       <c r="C217">
         <f t="shared" si="3"/>
-        <v>975.95681100000002</v>
+        <v>751.65179400000011</v>
       </c>
       <c r="E217" s="1">
         <v>14.869199999999999</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G217" s="1">
+        <v>481368</v>
+      </c>
+      <c r="H217" s="1">
+        <v>26.776</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>27.1813</v>
       </c>
@@ -3651,13 +4961,19 @@
       </c>
       <c r="C218">
         <f t="shared" si="3"/>
-        <v>980.42949099999998</v>
+        <v>755.09651400000007</v>
       </c>
       <c r="E218" s="1">
         <v>17.843</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G218" s="1">
+        <v>481928</v>
+      </c>
+      <c r="H218" s="1">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>27.305299999999999</v>
       </c>
@@ -3666,13 +4982,19 @@
       </c>
       <c r="C219">
         <f t="shared" si="3"/>
-        <v>984.90217099999995</v>
+        <v>758.54123400000003</v>
       </c>
       <c r="E219" s="1">
         <v>15.8605</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G219" s="1">
+        <v>481380</v>
+      </c>
+      <c r="H219" s="1">
+        <v>27.024000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>27.429300000000001</v>
       </c>
@@ -3681,13 +5003,19 @@
       </c>
       <c r="C220">
         <f t="shared" si="3"/>
-        <v>989.37485100000004</v>
+        <v>761.98595400000011</v>
       </c>
       <c r="E220" s="1">
         <v>15.8605</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G220" s="1">
+        <v>480801</v>
+      </c>
+      <c r="H220" s="1">
+        <v>27.148</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>27.5533</v>
       </c>
@@ -3696,13 +5024,19 @@
       </c>
       <c r="C221">
         <f t="shared" si="3"/>
-        <v>993.847531</v>
+        <v>765.43067400000007</v>
       </c>
       <c r="E221" s="1">
         <v>12.8866</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G221" s="1">
+        <v>480972</v>
+      </c>
+      <c r="H221" s="1">
+        <v>27.271999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>27.677299999999999</v>
       </c>
@@ -3711,13 +5045,19 @@
       </c>
       <c r="C222">
         <f t="shared" si="3"/>
-        <v>998.32021099999997</v>
+        <v>768.87539400000003</v>
       </c>
       <c r="E222" s="1">
         <v>11.895300000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G222" s="1">
+        <v>480050</v>
+      </c>
+      <c r="H222" s="1">
+        <v>27.396000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>27.801300000000001</v>
       </c>
@@ -3726,13 +5066,19 @@
       </c>
       <c r="C223">
         <f t="shared" si="3"/>
-        <v>1002.7928910000001</v>
+        <v>772.3201140000001</v>
       </c>
       <c r="E223" s="1">
         <v>20.8169</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G223" s="1">
+        <v>480397</v>
+      </c>
+      <c r="H223" s="1">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>27.9253</v>
       </c>
@@ -3741,13 +5087,19 @@
       </c>
       <c r="C224">
         <f t="shared" si="3"/>
-        <v>1007.265571</v>
+        <v>775.76483400000006</v>
       </c>
       <c r="E224" s="1">
         <v>13.8779</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G224" s="1">
+        <v>481120</v>
+      </c>
+      <c r="H224" s="1">
+        <v>27.643999999999998</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>28.049299999999999</v>
       </c>
@@ -3756,13 +5108,19 @@
       </c>
       <c r="C225">
         <f t="shared" si="3"/>
-        <v>1011.738251</v>
+        <v>779.20955400000003</v>
       </c>
       <c r="E225" s="1">
         <v>6.9389399999999997</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G225" s="1">
+        <v>480623</v>
+      </c>
+      <c r="H225" s="1">
+        <v>27.768000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>28.173300000000001</v>
       </c>
@@ -3771,13 +5129,19 @@
       </c>
       <c r="C226">
         <f t="shared" si="3"/>
-        <v>1016.2109310000001</v>
+        <v>782.6542740000001</v>
       </c>
       <c r="E226" s="1">
         <v>11.895300000000001</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G226" s="1">
+        <v>479289</v>
+      </c>
+      <c r="H226" s="1">
+        <v>27.891999999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>28.2973</v>
       </c>
@@ -3786,13 +5150,19 @@
       </c>
       <c r="C227">
         <f t="shared" si="3"/>
-        <v>1020.683611</v>
+        <v>786.09899400000006</v>
       </c>
       <c r="E227" s="1">
         <v>10.9041</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G227" s="1">
+        <v>478848</v>
+      </c>
+      <c r="H227" s="1">
+        <v>28.015999999999998</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>28.421299999999999</v>
       </c>
@@ -3801,13 +5171,19 @@
       </c>
       <c r="C228">
         <f t="shared" si="3"/>
-        <v>1025.156291</v>
+        <v>789.54371400000002</v>
       </c>
       <c r="E228" s="1">
         <v>7.9302299999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G228" s="1">
+        <v>477029</v>
+      </c>
+      <c r="H228" s="1">
+        <v>28.14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>28.545300000000001</v>
       </c>
@@ -3816,13 +5192,19 @@
       </c>
       <c r="C229">
         <f t="shared" si="3"/>
-        <v>1029.6289710000001</v>
+        <v>792.9884340000001</v>
       </c>
       <c r="E229" s="1">
         <v>10.9041</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G229" s="1">
+        <v>477788</v>
+      </c>
+      <c r="H229" s="1">
+        <v>28.263999999999999</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>28.6693</v>
       </c>
@@ -3831,13 +5213,19 @@
       </c>
       <c r="C230">
         <f t="shared" si="3"/>
-        <v>1034.1016509999999</v>
+        <v>796.43315400000006</v>
       </c>
       <c r="E230" s="1">
         <v>10.9041</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G230" s="1">
+        <v>477149</v>
+      </c>
+      <c r="H230" s="1">
+        <v>28.388000000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>28.793299999999999</v>
       </c>
@@ -3846,13 +5234,19 @@
       </c>
       <c r="C231">
         <f t="shared" si="3"/>
-        <v>1038.574331</v>
+        <v>799.87787400000002</v>
       </c>
       <c r="E231" s="1">
         <v>7.9302299999999999</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G231" s="1">
+        <v>477318</v>
+      </c>
+      <c r="H231" s="1">
+        <v>28.512</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>28.917300000000001</v>
       </c>
@@ -3861,13 +5255,19 @@
       </c>
       <c r="C232">
         <f t="shared" si="3"/>
-        <v>1043.0470110000001</v>
+        <v>803.32259400000009</v>
       </c>
       <c r="E232" s="1">
         <v>9.9127899999999993</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G232" s="1">
+        <v>477378</v>
+      </c>
+      <c r="H232" s="1">
+        <v>28.635999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>29.0413</v>
       </c>
@@ -3876,13 +5276,19 @@
       </c>
       <c r="C233">
         <f t="shared" si="3"/>
-        <v>1047.519691</v>
+        <v>806.76731400000006</v>
       </c>
       <c r="E233" s="1">
         <v>10.9041</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G233" s="1">
+        <v>477049</v>
+      </c>
+      <c r="H233" s="1">
+        <v>28.76</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>29.165299999999998</v>
       </c>
@@ -3891,13 +5297,19 @@
       </c>
       <c r="C234">
         <f t="shared" si="3"/>
-        <v>1051.992371</v>
+        <v>810.21203400000002</v>
       </c>
       <c r="E234" s="1">
         <v>5.9476699999999996</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G234" s="1">
+        <v>476462</v>
+      </c>
+      <c r="H234" s="1">
+        <v>28.884</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>29.289300000000001</v>
       </c>
@@ -3906,13 +5318,19 @@
       </c>
       <c r="C235">
         <f t="shared" si="3"/>
-        <v>1056.4650510000001</v>
+        <v>813.65675400000009</v>
       </c>
       <c r="E235" s="1">
         <v>10.9041</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G235" s="1">
+        <v>476599</v>
+      </c>
+      <c r="H235" s="1">
+        <v>29.007999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>29.4133</v>
       </c>
@@ -3921,13 +5339,19 @@
       </c>
       <c r="C236">
         <f t="shared" si="3"/>
-        <v>1060.937731</v>
+        <v>817.10147400000005</v>
       </c>
       <c r="E236" s="1">
         <v>4.9563899999999999</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G236" s="1">
+        <v>477624</v>
+      </c>
+      <c r="H236" s="1">
+        <v>29.132000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>29.537299999999998</v>
       </c>
@@ -3936,13 +5360,19 @@
       </c>
       <c r="C237">
         <f t="shared" si="3"/>
-        <v>1065.4104109999998</v>
+        <v>820.54619400000001</v>
       </c>
       <c r="E237" s="1">
         <v>9.9127799999999997</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G237" s="1">
+        <v>478938</v>
+      </c>
+      <c r="H237" s="1">
+        <v>29.256</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>29.661300000000001</v>
       </c>
@@ -3951,13 +5381,19 @@
       </c>
       <c r="C238">
         <f t="shared" si="3"/>
-        <v>1069.8830909999999</v>
+        <v>823.99091400000009</v>
       </c>
       <c r="E238" s="1">
         <v>8.9215099999999996</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G238" s="1">
+        <v>479895</v>
+      </c>
+      <c r="H238" s="1">
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>29.785299999999999</v>
       </c>
@@ -3966,13 +5402,19 @@
       </c>
       <c r="C239">
         <f t="shared" si="3"/>
-        <v>1074.355771</v>
+        <v>827.43563400000005</v>
       </c>
       <c r="E239" s="1">
         <v>6.9389399999999997</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G239" s="1">
+        <v>481816</v>
+      </c>
+      <c r="H239" s="1">
+        <v>29.504000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>29.909300000000002</v>
       </c>
@@ -3981,13 +5423,19 @@
       </c>
       <c r="C240">
         <f t="shared" si="3"/>
-        <v>1078.8284510000001</v>
+        <v>830.88035400000012</v>
       </c>
       <c r="E240" s="1">
         <v>9.9127799999999997</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G240" s="1">
+        <v>480324</v>
+      </c>
+      <c r="H240" s="1">
+        <v>29.628</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>30.033300000000001</v>
       </c>
@@ -3996,13 +5444,19 @@
       </c>
       <c r="C241">
         <f t="shared" si="3"/>
-        <v>1083.3011309999999</v>
+        <v>834.32507400000009</v>
       </c>
       <c r="E241" s="1">
         <v>5.9476699999999996</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G241" s="1">
+        <v>479483</v>
+      </c>
+      <c r="H241" s="1">
+        <v>29.751999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>30.157299999999999</v>
       </c>
@@ -4011,13 +5465,19 @@
       </c>
       <c r="C242">
         <f t="shared" si="3"/>
-        <v>1087.773811</v>
+        <v>837.76979400000005</v>
       </c>
       <c r="E242" s="1">
         <v>7.9302299999999999</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G242" s="1">
+        <v>478183</v>
+      </c>
+      <c r="H242" s="1">
+        <v>29.876000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>30.281300000000002</v>
       </c>
@@ -4026,13 +5486,19 @@
       </c>
       <c r="C243">
         <f t="shared" si="3"/>
-        <v>1092.2464910000001</v>
+        <v>841.21451400000012</v>
       </c>
       <c r="E243" s="1">
         <v>6.9389500000000002</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G243" s="1">
+        <v>476304</v>
+      </c>
+      <c r="H243" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>30.4053</v>
       </c>
@@ -4041,13 +5507,19 @@
       </c>
       <c r="C244">
         <f t="shared" si="3"/>
-        <v>1096.719171</v>
+        <v>844.65923400000008</v>
       </c>
       <c r="E244" s="1">
         <v>8.9215</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G244" s="1">
+        <v>476939</v>
+      </c>
+      <c r="H244" s="1">
+        <v>30.123999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>30.529299999999999</v>
       </c>
@@ -4056,13 +5528,19 @@
       </c>
       <c r="C245">
         <f t="shared" si="3"/>
-        <v>1101.191851</v>
+        <v>848.10395400000004</v>
       </c>
       <c r="E245" s="1">
         <v>4.9563899999999999</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G245" s="1">
+        <v>476395</v>
+      </c>
+      <c r="H245" s="1">
+        <v>30.248000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>30.653300000000002</v>
       </c>
@@ -4071,13 +5549,19 @@
       </c>
       <c r="C246">
         <f t="shared" si="3"/>
-        <v>1105.6645310000001</v>
+        <v>851.54867400000012</v>
       </c>
       <c r="E246" s="1">
         <v>8.9215</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G246" s="1">
+        <v>477527</v>
+      </c>
+      <c r="H246" s="1">
+        <v>30.372</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>30.7773</v>
       </c>
@@ -4086,13 +5570,19 @@
       </c>
       <c r="C247">
         <f t="shared" si="3"/>
-        <v>1110.137211</v>
+        <v>854.99339400000008</v>
       </c>
       <c r="E247" s="1">
         <v>8.9215</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G247" s="1">
+        <v>480032</v>
+      </c>
+      <c r="H247" s="1">
+        <v>30.495999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>30.901299999999999</v>
       </c>
@@ -4101,13 +5591,19 @@
       </c>
       <c r="C248">
         <f t="shared" si="3"/>
-        <v>1114.6098910000001</v>
+        <v>858.43811400000004</v>
       </c>
       <c r="E248" s="1">
         <v>9.9127799999999997</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G248" s="1">
+        <v>482132</v>
+      </c>
+      <c r="H248" s="1">
+        <v>30.62</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>31.025300000000001</v>
       </c>
@@ -4116,13 +5612,19 @@
       </c>
       <c r="C249">
         <f t="shared" si="3"/>
-        <v>1119.0825710000001</v>
+        <v>861.88283400000012</v>
       </c>
       <c r="E249" s="1">
         <v>11.895300000000001</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G249" s="1">
+        <v>479782</v>
+      </c>
+      <c r="H249" s="1">
+        <v>30.744</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>31.1493</v>
       </c>
@@ -4131,13 +5633,19 @@
       </c>
       <c r="C250">
         <f t="shared" si="3"/>
-        <v>1123.555251</v>
+        <v>865.32755400000008</v>
       </c>
       <c r="E250" s="1">
         <v>2.97383</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G250" s="1">
+        <v>477482</v>
+      </c>
+      <c r="H250" s="1">
+        <v>30.867999999999999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>31.273299999999999</v>
       </c>
@@ -4145,14 +5653,20 @@
         <v>0.49999927942988487</v>
       </c>
       <c r="C251">
-        <f>A252*$D$2</f>
-        <v>1132.5006110000002</v>
+        <f t="shared" ref="C251:C257" si="4">A252*$D$2</f>
+        <v>872.21699400000011</v>
       </c>
       <c r="E251" s="1">
         <v>7.9302299999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G251" s="1">
+        <v>476645</v>
+      </c>
+      <c r="H251" s="1">
+        <v>30.992000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>31.397300000000001</v>
       </c>
@@ -4160,14 +5674,20 @@
         <v>0.31249897544213612</v>
       </c>
       <c r="C252">
-        <f>A253*$D$2</f>
-        <v>1136.973291</v>
+        <f t="shared" si="4"/>
+        <v>875.66171400000007</v>
       </c>
       <c r="E252" s="1">
         <v>5.9476699999999996</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G252" s="1">
+        <v>477062</v>
+      </c>
+      <c r="H252" s="1">
+        <v>31.116</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>31.5213</v>
       </c>
@@ -4175,14 +5695,20 @@
         <v>0.3749988966299927</v>
       </c>
       <c r="C253">
-        <f>A254*$D$2</f>
-        <v>1141.4459709999999</v>
+        <f t="shared" si="4"/>
+        <v>879.10643400000004</v>
       </c>
       <c r="E253" s="1">
         <v>6.9389399999999997</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G253" s="1">
+        <v>477144</v>
+      </c>
+      <c r="H253" s="1">
+        <v>31.24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>31.645299999999999</v>
       </c>
@@ -4190,14 +5716,20 @@
         <v>0.70000040351949711</v>
       </c>
       <c r="C254">
-        <f>A255*$D$2</f>
-        <v>1145.918651</v>
+        <f t="shared" si="4"/>
+        <v>882.55115400000011</v>
       </c>
       <c r="E254" s="1">
         <v>4.9563899999999999</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G254" s="1">
+        <v>477158</v>
+      </c>
+      <c r="H254" s="1">
+        <v>31.364000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>31.769300000000001</v>
       </c>
@@ -4205,14 +5737,20 @@
         <v>0.78571685917898237</v>
       </c>
       <c r="C255">
-        <f>A256*$D$2</f>
-        <v>1150.391331</v>
+        <f t="shared" si="4"/>
+        <v>885.99587400000007</v>
       </c>
       <c r="E255" s="1">
         <v>5.9476699999999996</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G255" s="1">
+        <v>477743</v>
+      </c>
+      <c r="H255" s="1">
+        <v>31.488</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>31.8933</v>
       </c>
@@ -4220,14 +5758,20 @@
         <v>0.19999932746886182</v>
       </c>
       <c r="C256">
-        <f>A257*$D$2</f>
-        <v>1154.8640109999999</v>
+        <f t="shared" si="4"/>
+        <v>889.44059400000003</v>
       </c>
       <c r="E256" s="1">
         <v>6.9389500000000002</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G256" s="1">
+        <v>479790</v>
+      </c>
+      <c r="H256" s="1">
+        <v>31.611999999999998</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>32.017299999999999</v>
       </c>
@@ -4235,14 +5779,20 @@
         <v>0.58333543500374097</v>
       </c>
       <c r="C257">
-        <f>A258*$D$2</f>
-        <v>1159.336691</v>
+        <f t="shared" si="4"/>
+        <v>892.88531400000011</v>
       </c>
       <c r="E257" s="1">
         <v>10.9041</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G257" s="1">
+        <v>480393</v>
+      </c>
+      <c r="H257" s="1">
+        <v>31.736000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>32.141300000000001</v>
       </c>
@@ -4250,14 +5800,20 @@
         <v>0.23529436199315201</v>
       </c>
       <c r="C258">
-        <f t="shared" ref="C258:C263" si="4">A259*$D$2</f>
-        <v>1163.8093710000001</v>
+        <f t="shared" ref="C258:C263" si="5">A259*$D$2</f>
+        <v>896.33003400000018</v>
       </c>
       <c r="E258" s="1">
         <v>2.97383</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G258" s="1">
+        <v>480791</v>
+      </c>
+      <c r="H258" s="1">
+        <v>31.86</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>32.265300000000003</v>
       </c>
@@ -4265,14 +5821,20 @@
         <v>0.3636347795783238</v>
       </c>
       <c r="C259">
-        <f t="shared" si="4"/>
-        <v>1168.2820509999999</v>
+        <f t="shared" si="5"/>
+        <v>899.77475400000003</v>
       </c>
       <c r="E259" s="1">
         <v>6.9389500000000002</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G259" s="1">
+        <v>477681</v>
+      </c>
+      <c r="H259" s="1">
+        <v>31.984000000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>32.389299999999999</v>
       </c>
@@ -4280,14 +5842,20 @@
         <v>0.26666599413552849</v>
       </c>
       <c r="C260">
-        <f t="shared" si="4"/>
-        <v>1172.754731</v>
+        <f t="shared" si="5"/>
+        <v>903.2194740000001</v>
       </c>
       <c r="E260" s="1">
         <v>3.9651100000000001</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G260" s="1">
+        <v>476634</v>
+      </c>
+      <c r="H260" s="1">
+        <v>32.107999999999997</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>32.513300000000001</v>
       </c>
@@ -4295,14 +5863,20 @@
         <v>1</v>
       </c>
       <c r="C261">
-        <f t="shared" si="4"/>
-        <v>1177.2274110000001</v>
+        <f t="shared" si="5"/>
+        <v>906.66419400000018</v>
       </c>
       <c r="E261" s="1">
         <v>3.9651100000000001</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G261" s="1">
+        <v>476982</v>
+      </c>
+      <c r="H261" s="1">
+        <v>32.231999999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>32.637300000000003</v>
       </c>
@@ -4310,14 +5884,20 @@
         <v>0.2</v>
       </c>
       <c r="C262">
-        <f t="shared" si="4"/>
-        <v>1181.7000909999999</v>
+        <f t="shared" si="5"/>
+        <v>910.10891400000003</v>
       </c>
       <c r="E262" s="1">
         <v>3.9651100000000001</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G262" s="1">
+        <v>476946</v>
+      </c>
+      <c r="H262" s="1">
+        <v>32.356000000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>32.761299999999999</v>
       </c>
@@ -4325,14 +5905,20 @@
         <v>0.62500031524976607</v>
       </c>
       <c r="C263">
-        <f t="shared" si="4"/>
-        <v>1186.172771</v>
+        <f t="shared" si="5"/>
+        <v>913.5536340000001</v>
       </c>
       <c r="E263" s="1">
         <v>10.9041</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G263" s="1">
+        <v>477869</v>
+      </c>
+      <c r="H263" s="1">
+        <v>32.479999999999997</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>32.885300000000001</v>
       </c>
@@ -4340,14 +5926,20 @@
         <v>0.30769248676920213</v>
       </c>
       <c r="C264">
-        <f>A265*$D$2</f>
-        <v>1190.6454510000001</v>
+        <f t="shared" ref="C264:C283" si="6">A265*$D$2</f>
+        <v>916.99835400000018</v>
       </c>
       <c r="E264" s="1">
         <v>2.97384</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G264" s="1">
+        <v>479484</v>
+      </c>
+      <c r="H264" s="1">
+        <v>32.603999999999999</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>33.009300000000003</v>
       </c>
@@ -4355,14 +5947,20 @@
         <v>0.59999865493772364</v>
       </c>
       <c r="C265">
-        <f>A266*$D$2</f>
-        <v>1195.1181309999999</v>
+        <f t="shared" si="6"/>
+        <v>920.44307400000002</v>
       </c>
       <c r="E265" s="1">
         <v>4.9563899999999999</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G265" s="1">
+        <v>480418</v>
+      </c>
+      <c r="H265" s="1">
+        <v>32.728000000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>33.133299999999998</v>
       </c>
@@ -4370,14 +5968,20 @@
         <v>0.27272585541218441</v>
       </c>
       <c r="C266">
-        <f>A267*$D$2</f>
-        <v>1199.590811</v>
+        <f t="shared" si="6"/>
+        <v>923.8877940000001</v>
       </c>
       <c r="E266" s="1">
         <v>3.9651100000000001</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G266" s="1">
+        <v>478634</v>
+      </c>
+      <c r="H266" s="1">
+        <v>32.851999999999997</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>33.257300000000001</v>
       </c>
@@ -4385,14 +5989,20 @@
         <v>0.66666610622310929</v>
       </c>
       <c r="C267">
-        <f>A268*$D$2</f>
-        <v>1204.0634910000001</v>
+        <f t="shared" si="6"/>
+        <v>927.33251400000017</v>
       </c>
       <c r="E267" s="1">
         <v>8.9215</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G267" s="1">
+        <v>477772</v>
+      </c>
+      <c r="H267" s="1">
+        <v>32.975999999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>33.381300000000003</v>
       </c>
@@ -4400,14 +6010,20 @@
         <v>0.24999905425427951</v>
       </c>
       <c r="C268">
-        <f>A269*$D$2</f>
-        <v>1208.536171</v>
+        <f t="shared" si="6"/>
+        <v>930.77723400000002</v>
       </c>
       <c r="E268" s="1">
         <v>2.97383</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G268" s="1">
+        <v>476510</v>
+      </c>
+      <c r="H268" s="1">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>33.505299999999998</v>
       </c>
@@ -4415,14 +6031,20 @@
         <v>0.70000040351949711</v>
       </c>
       <c r="C269">
-        <f>A270*$D$2</f>
-        <v>1213.008851</v>
+        <f t="shared" si="6"/>
+        <v>934.2219540000001</v>
       </c>
       <c r="E269" s="1">
         <v>3.9651100000000001</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G269" s="1">
+        <v>476709</v>
+      </c>
+      <c r="H269" s="1">
+        <v>33.223999999999997</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>33.629300000000001</v>
       </c>
@@ -4430,14 +6052,20 @@
         <v>0.18181784833227871</v>
       </c>
       <c r="C270">
-        <f>A271*$D$2</f>
-        <v>1217.4815310000001</v>
+        <f t="shared" si="6"/>
+        <v>937.66667400000017</v>
       </c>
       <c r="E270" s="1">
         <v>3.9651100000000001</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G270" s="1">
+        <v>476705</v>
+      </c>
+      <c r="H270" s="1">
+        <v>33.347999999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>33.753300000000003</v>
       </c>
@@ -4445,14 +6073,20 @@
         <v>1.2857146974686371</v>
       </c>
       <c r="C271">
-        <f>A272*$D$2</f>
-        <v>1221.954211</v>
+        <f t="shared" si="6"/>
+        <v>941.11139400000002</v>
       </c>
       <c r="E271" s="1">
         <v>6.9389500000000002</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G271" s="1">
+        <v>475472</v>
+      </c>
+      <c r="H271" s="1">
+        <v>33.472000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>33.877299999999998</v>
       </c>
@@ -4460,14 +6094,20 @@
         <v>0.30000030263931754</v>
       </c>
       <c r="C272">
-        <f>A273*$D$2</f>
-        <v>1226.4268910000001</v>
+        <f t="shared" si="6"/>
+        <v>944.55611400000009</v>
       </c>
       <c r="E272" s="1">
         <v>1.9825600000000001</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G272" s="1">
+        <v>476351</v>
+      </c>
+      <c r="H272" s="1">
+        <v>33.595999999999997</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>34.001300000000001</v>
       </c>
@@ -4475,14 +6115,20 @@
         <v>0.33333389377689082</v>
       </c>
       <c r="C273">
-        <f>A274*$D$2</f>
-        <v>1230.8995710000002</v>
+        <f t="shared" si="6"/>
+        <v>948.00083400000017</v>
       </c>
       <c r="E273" s="1">
         <v>8.9215099999999996</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G273" s="1">
+        <v>476235</v>
+      </c>
+      <c r="H273" s="1">
+        <v>33.72</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>34.125300000000003</v>
       </c>
@@ -4490,14 +6136,20 @@
         <v>0.3333341740014964</v>
       </c>
       <c r="C274">
-        <f>A275*$D$2</f>
-        <v>1235.372251</v>
+        <f t="shared" si="6"/>
+        <v>951.44555400000002</v>
       </c>
       <c r="E274" s="1">
         <v>2.97384</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G274" s="1">
+        <v>478096</v>
+      </c>
+      <c r="H274" s="1">
+        <v>33.844000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>34.249299999999998</v>
       </c>
@@ -4505,14 +6157,20 @@
         <v>0.50000168133632605</v>
       </c>
       <c r="C275">
-        <f>A276*$D$2</f>
-        <v>1239.8449310000001</v>
+        <f t="shared" si="6"/>
+        <v>954.89027400000009</v>
       </c>
       <c r="E275" s="1">
         <v>1.9825600000000001</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G275" s="1">
+        <v>478863</v>
+      </c>
+      <c r="H275" s="1">
+        <v>33.968000000000004</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>34.3733</v>
       </c>
@@ -4520,14 +6178,20 @@
         <v>0.59999959648091006</v>
       </c>
       <c r="C276">
-        <f>A277*$D$2</f>
-        <v>1244.3176110000002</v>
+        <f t="shared" si="6"/>
+        <v>958.33499400000017</v>
       </c>
       <c r="E276" s="1">
         <v>3.9651100000000001</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G276" s="1">
+        <v>480401</v>
+      </c>
+      <c r="H276" s="1">
+        <v>34.091999999999999</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>34.497300000000003</v>
       </c>
@@ -4535,14 +6199,20 @@
         <v>0.22222272039455249</v>
       </c>
       <c r="C277">
-        <f>A278*$D$2</f>
-        <v>1248.790291</v>
+        <f t="shared" si="6"/>
+        <v>961.77971400000001</v>
       </c>
       <c r="E277" s="1">
         <v>5.9476699999999996</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G277" s="1">
+        <v>480982</v>
+      </c>
+      <c r="H277" s="1">
+        <v>34.216000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>34.621299999999998</v>
       </c>
@@ -4550,14 +6220,20 @@
         <v>0.49999873900570602</v>
       </c>
       <c r="C278">
-        <f>A279*$D$2</f>
-        <v>1253.2629710000001</v>
+        <f t="shared" si="6"/>
+        <v>965.22443400000009</v>
       </c>
       <c r="E278" s="1">
         <v>5.9476699999999996</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G278" s="1">
+        <v>479654</v>
+      </c>
+      <c r="H278" s="1">
+        <v>34.340000000000003</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>34.7453</v>
       </c>
@@ -4565,14 +6241,20 @@
         <v>0.18181784833227871</v>
       </c>
       <c r="C279">
-        <f>A280*$D$2</f>
-        <v>1257.7356510000002</v>
+        <f t="shared" si="6"/>
+        <v>968.66915400000016</v>
       </c>
       <c r="E279" s="1">
         <v>1.9825600000000001</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G279" s="1">
+        <v>477624</v>
+      </c>
+      <c r="H279" s="1">
+        <v>34.463999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>34.869300000000003</v>
       </c>
@@ -4580,14 +6262,20 @@
         <v>0.85714265126568134</v>
       </c>
       <c r="C280">
-        <f>A281*$D$2</f>
-        <v>1262.208331</v>
+        <f t="shared" si="6"/>
+        <v>972.11387400000001</v>
       </c>
       <c r="E280" s="1">
         <v>7.9302299999999999</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G280" s="1">
+        <v>475597</v>
+      </c>
+      <c r="H280" s="1">
+        <v>34.588000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>34.993299999999998</v>
       </c>
@@ -4595,14 +6283,20 @@
         <v>0.16666610622593608</v>
       </c>
       <c r="C281">
-        <f>A282*$D$2</f>
-        <v>1266.6810110000001</v>
+        <f t="shared" si="6"/>
+        <v>975.55859400000008</v>
       </c>
       <c r="E281" s="1">
         <v>1.9825600000000001</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G281" s="1">
+        <v>476873</v>
+      </c>
+      <c r="H281" s="1">
+        <v>34.712000000000003</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>35.1173</v>
       </c>
@@ -4610,14 +6304,20 @@
         <v>0.11111113601972762</v>
       </c>
       <c r="C282">
-        <f>A283*$D$2</f>
-        <v>1271.1536910000002</v>
+        <f t="shared" si="6"/>
+        <v>979.00331400000016</v>
       </c>
       <c r="E282" s="1">
         <v>5.9476699999999996</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G282" s="1">
+        <v>480568</v>
+      </c>
+      <c r="H282" s="1">
+        <v>34.835999999999999</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>35.241300000000003</v>
       </c>
@@ -4625,14 +6325,20 @@
         <v>0.21428602310147787</v>
       </c>
       <c r="C283">
-        <f>A284*$D$2</f>
-        <v>1275.6263709999998</v>
+        <f t="shared" si="6"/>
+        <v>982.44803400000001</v>
       </c>
       <c r="E283" s="1">
         <v>1.9825600000000001</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G283" s="1">
+        <v>477685</v>
+      </c>
+      <c r="H283" s="1">
+        <v>34.96</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>35.365299999999998</v>
       </c>
@@ -4640,14 +6346,20 @@
         <v>0.22222247130810818</v>
       </c>
       <c r="C284">
-        <f>A286*$D$2</f>
-        <v>1284.571731</v>
+        <f t="shared" ref="C284:C293" si="7">A286*$D$2</f>
+        <v>989.33747400000016</v>
       </c>
       <c r="E284" s="1">
         <v>2.97384</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G284" s="1">
+        <v>475909</v>
+      </c>
+      <c r="H284" s="1">
+        <v>35.084000000000003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>35.4893</v>
       </c>
@@ -4655,14 +6367,20 @@
         <v>0.33333137179077627</v>
       </c>
       <c r="C285">
-        <f>A287*$D$2</f>
-        <v>1289.0444109999999</v>
+        <f t="shared" si="7"/>
+        <v>992.782194</v>
       </c>
       <c r="E285" s="1">
         <v>1.9825600000000001</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G285" s="1">
+        <v>476667</v>
+      </c>
+      <c r="H285" s="1">
+        <v>35.207999999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>35.613300000000002</v>
       </c>
@@ -4670,14 +6388,20 @@
         <v>0.30769248676920213</v>
       </c>
       <c r="C286">
-        <f>A288*$D$2</f>
-        <v>1293.5170909999999</v>
+        <f t="shared" si="7"/>
+        <v>996.22691400000008</v>
       </c>
       <c r="E286" s="1">
         <v>3.9651100000000001</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G286" s="1">
+        <v>479528</v>
+      </c>
+      <c r="H286" s="1">
+        <v>35.332000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>35.737299999999998</v>
       </c>
@@ -4685,14 +6409,20 @@
         <v>0.80000060527924555</v>
       </c>
       <c r="C287">
-        <f>A289*$D$2</f>
-        <v>1297.989771</v>
+        <f t="shared" si="7"/>
+        <v>999.67163400000015</v>
       </c>
       <c r="E287" s="1">
         <v>3.9651100000000001</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G287" s="1">
+        <v>480169</v>
+      </c>
+      <c r="H287" s="1">
+        <v>35.456000000000003</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>35.8613</v>
       </c>
@@ -4700,14 +6430,20 @@
         <v>0.33333352014795714</v>
       </c>
       <c r="C288">
-        <f>A290*$D$2</f>
-        <v>1302.4624509999999</v>
+        <f t="shared" si="7"/>
+        <v>1003.116354</v>
       </c>
       <c r="E288" s="1">
         <v>7.9302299999999999</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G288" s="1">
+        <v>476507</v>
+      </c>
+      <c r="H288" s="1">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>35.985300000000002</v>
       </c>
@@ -4715,14 +6451,20 @@
         <v>0.83333305311155459</v>
       </c>
       <c r="C289">
-        <f>A291*$D$2</f>
-        <v>1306.935131</v>
+        <f t="shared" si="7"/>
+        <v>1006.5610740000001</v>
       </c>
       <c r="E289" s="1">
         <v>5.9476699999999996</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G289" s="1">
+        <v>477444</v>
+      </c>
+      <c r="H289" s="1">
+        <v>35.704000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>36.109299999999998</v>
       </c>
@@ -4730,14 +6472,20 @@
         <v>0.45454370374446307</v>
       </c>
       <c r="C290">
-        <f>A292*$D$2</f>
-        <v>1311.407811</v>
+        <f t="shared" si="7"/>
+        <v>1010.0057940000002</v>
       </c>
       <c r="E290" s="1">
         <v>4.9563899999999999</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G290" s="1">
+        <v>477160</v>
+      </c>
+      <c r="H290" s="1">
+        <v>35.828000000000003</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>36.2333</v>
       </c>
@@ -4745,14 +6493,20 @@
         <v>0.85714265126568134</v>
       </c>
       <c r="C291">
-        <f>A293*$D$2</f>
-        <v>1315.8804909999999</v>
+        <f t="shared" si="7"/>
+        <v>1013.450514</v>
       </c>
       <c r="E291" s="1">
         <v>4.9563899999999999</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G291" s="1">
+        <v>481070</v>
+      </c>
+      <c r="H291" s="1">
+        <v>35.951999999999998</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>36.357300000000002</v>
       </c>
@@ -4760,14 +6514,20 @@
         <v>0.33333266080219515</v>
       </c>
       <c r="C292">
-        <f>A294*$D$2</f>
-        <v>1320.353171</v>
+        <f t="shared" si="7"/>
+        <v>1016.8952340000001</v>
       </c>
       <c r="E292" s="1">
         <v>5.9476699999999996</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G292" s="1">
+        <v>477686</v>
+      </c>
+      <c r="H292" s="1">
+        <v>36.076000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>36.481299999999997</v>
       </c>
@@ -4775,14 +6535,20 @@
         <v>7.142853025313628E-2</v>
       </c>
       <c r="C293">
-        <f>A295*$D$2</f>
-        <v>1324.8258510000001</v>
+        <f t="shared" si="7"/>
+        <v>1020.3399540000001</v>
       </c>
       <c r="E293" s="1">
         <v>4.9563899999999999</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G293" s="1">
+        <v>478011</v>
+      </c>
+      <c r="H293" s="1">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>36.6053</v>
       </c>
@@ -4791,13 +6557,19 @@
       </c>
       <c r="C294">
         <f>A298*$D$2</f>
-        <v>1338.2438910000001</v>
+        <v>1030.6741140000001</v>
       </c>
       <c r="E294" s="1">
         <v>3.9651100000000001</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G294" s="1">
+        <v>479797</v>
+      </c>
+      <c r="H294" s="1">
+        <v>36.323999999999998</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>36.729300000000002</v>
       </c>
@@ -4805,8 +6577,14 @@
         <v>0.15384564646358831</v>
       </c>
       <c r="E295" s="1"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G295" s="1">
+        <v>481342</v>
+      </c>
+      <c r="H295" s="1">
+        <v>36.448</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>36.853299999999997</v>
       </c>
@@ -4814,8 +6592,14 @@
         <v>0.70000040351949711</v>
       </c>
       <c r="E296" s="1"/>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G296" s="1">
+        <v>476904</v>
+      </c>
+      <c r="H296" s="1">
+        <v>36.572000000000003</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>36.9773</v>
       </c>
@@ -4823,13 +6607,49 @@
         <v>0.2857146974686372</v>
       </c>
       <c r="E297" s="1"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G297" s="1">
+        <v>477064</v>
+      </c>
+      <c r="H297" s="1">
+        <v>36.695999999999998</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>37.101300000000002</v>
       </c>
       <c r="B298">
         <v>0.38888920024659529</v>
+      </c>
+      <c r="G298" s="1">
+        <v>478784</v>
+      </c>
+      <c r="H298" s="1">
+        <v>36.82</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G299" s="1">
+        <v>480618</v>
+      </c>
+      <c r="H299" s="1">
+        <v>36.944000000000003</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G300" s="1">
+        <v>479673</v>
+      </c>
+      <c r="H300" s="1">
+        <v>37.067999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G301" s="1">
+        <v>477278</v>
+      </c>
+      <c r="H301" s="1">
+        <v>37.200000000000003</v>
       </c>
     </row>
     <row r="319" spans="5:5" x14ac:dyDescent="0.3">
